--- a/BackTest/2019-11-21 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-21 BackTest STRAT.xlsx
@@ -2411,20 +2411,14 @@
         <v>356.5</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>357</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,20 +2446,14 @@
         <v>359.5</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>361</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2493,20 +2481,14 @@
         <v>361</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>361</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2534,20 +2516,14 @@
         <v>361</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>361</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2575,20 +2551,14 @@
         <v>361</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>361</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2616,20 +2586,14 @@
         <v>361</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>361</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2657,20 +2621,14 @@
         <v>361</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>361</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,12 +2664,10 @@
       <c r="J65" t="n">
         <v>361</v>
       </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="n">
+        <v>361</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2745,12 +2701,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>362</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+        <v>361</v>
+      </c>
+      <c r="K66" t="n">
+        <v>361</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -2780,18 +2738,18 @@
         <v>362.5</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
         <v>361</v>
       </c>
-      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -2821,20 +2779,14 @@
         <v>362.5</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>364</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2862,20 +2814,14 @@
         <v>364</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>364</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2903,20 +2849,14 @@
         <v>367.5</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>369</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2944,20 +2884,14 @@
         <v>372</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>371</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +2926,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3031,11 +2961,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3070,11 +2996,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3109,11 +3031,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3148,11 +3066,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3183,15 +3097,11 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3226,11 +3136,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3265,11 +3171,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3304,11 +3206,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3343,11 +3241,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3378,16 +3272,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3415,7 +3307,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>

--- a/BackTest/2019-11-21 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-21 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M170"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C2" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D2" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E2" t="n">
         <v>371</v>
       </c>
       <c r="F2" t="n">
-        <v>302.1956</v>
+        <v>1174.5563</v>
       </c>
       <c r="G2" t="n">
-        <v>373</v>
+        <v>372.8666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C3" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D3" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E3" t="n">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F3" t="n">
-        <v>534.4759</v>
+        <v>302.1956</v>
       </c>
       <c r="G3" t="n">
-        <v>370</v>
+        <v>372.9833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C4" t="n">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D4" t="n">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E4" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F4" t="n">
-        <v>107.5</v>
+        <v>534.4759</v>
       </c>
       <c r="G4" t="n">
-        <v>370</v>
+        <v>373.0666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,29 +541,35 @@
         <v>368</v>
       </c>
       <c r="C5" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D5" t="n">
+        <v>371</v>
+      </c>
+      <c r="E5" t="n">
         <v>368</v>
       </c>
-      <c r="E5" t="n">
-        <v>365</v>
-      </c>
       <c r="F5" t="n">
-        <v>4603.8761</v>
+        <v>107.5</v>
       </c>
       <c r="G5" t="n">
-        <v>368</v>
+        <v>373.25</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>369</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -576,19 +582,19 @@
         <v>368</v>
       </c>
       <c r="C6" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D6" t="n">
         <v>368</v>
       </c>
       <c r="E6" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F6" t="n">
-        <v>181.7182</v>
+        <v>4603.8761</v>
       </c>
       <c r="G6" t="n">
-        <v>366.5</v>
+        <v>373.2666666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -598,7 +604,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,32 +618,38 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C7" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D7" t="n">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E7" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F7" t="n">
-        <v>11263.6935</v>
+        <v>181.7182</v>
       </c>
       <c r="G7" t="n">
-        <v>369.5</v>
+        <v>373.2666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>365</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,32 +659,38 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C8" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D8" t="n">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E8" t="n">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F8" t="n">
-        <v>22.3</v>
+        <v>11263.6935</v>
       </c>
       <c r="G8" t="n">
-        <v>369</v>
+        <v>373.2</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>368</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -681,19 +703,19 @@
         <v>367</v>
       </c>
       <c r="C9" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D9" t="n">
         <v>367</v>
       </c>
       <c r="E9" t="n">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F9" t="n">
-        <v>5080.3853</v>
+        <v>22.3</v>
       </c>
       <c r="G9" t="n">
-        <v>365.5</v>
+        <v>373.0666666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,7 +725,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,22 +739,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C10" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D10" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E10" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F10" t="n">
-        <v>12.9169</v>
+        <v>5080.3853</v>
       </c>
       <c r="G10" t="n">
-        <v>366</v>
+        <v>372.8833333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,7 +764,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,32 +778,38 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C11" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D11" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E11" t="n">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F11" t="n">
-        <v>3244.6021</v>
+        <v>12.9169</v>
       </c>
       <c r="G11" t="n">
-        <v>367.5</v>
+        <v>372.75</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>364</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +819,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C12" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D12" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E12" t="n">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F12" t="n">
-        <v>295.7483</v>
+        <v>3244.6021</v>
       </c>
       <c r="G12" t="n">
-        <v>367.5</v>
+        <v>372.6166666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,7 +844,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,32 +858,38 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C13" t="n">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D13" t="n">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E13" t="n">
+        <v>368</v>
+      </c>
+      <c r="F13" t="n">
+        <v>295.7483</v>
+      </c>
+      <c r="G13" t="n">
+        <v>372.45</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>367</v>
       </c>
-      <c r="F13" t="n">
-        <v>5372.8708</v>
-      </c>
-      <c r="G13" t="n">
-        <v>370.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,32 +899,38 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C14" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D14" t="n">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E14" t="n">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F14" t="n">
-        <v>119.9999</v>
+        <v>5372.8708</v>
       </c>
       <c r="G14" t="n">
-        <v>372.5</v>
+        <v>372.4</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>368</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,22 +940,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C15" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D15" t="n">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E15" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>119.9999</v>
       </c>
       <c r="G15" t="n">
-        <v>371</v>
+        <v>372.3166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,7 +965,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +979,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C16" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D16" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E16" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F16" t="n">
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>370.5</v>
+        <v>372.2166666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +1004,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -970,10 +1030,10 @@
         <v>371</v>
       </c>
       <c r="F17" t="n">
-        <v>7.8538</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>371</v>
+        <v>372.1166666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,7 +1043,11 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1005,10 +1069,10 @@
         <v>371</v>
       </c>
       <c r="F18" t="n">
-        <v>238</v>
+        <v>7.8538</v>
       </c>
       <c r="G18" t="n">
-        <v>371</v>
+        <v>372.0166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1082,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1040,10 +1108,10 @@
         <v>371</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6746</v>
+        <v>238</v>
       </c>
       <c r="G19" t="n">
-        <v>371</v>
+        <v>371.8333333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1121,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1063,22 +1135,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C20" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D20" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E20" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="F20" t="n">
-        <v>2155.2227</v>
+        <v>247.6746</v>
       </c>
       <c r="G20" t="n">
-        <v>370.5</v>
+        <v>371.7333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1160,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1101,19 +1177,19 @@
         <v>367</v>
       </c>
       <c r="C21" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D21" t="n">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="E21" t="n">
         <v>367</v>
       </c>
       <c r="F21" t="n">
-        <v>273.1638</v>
+        <v>2155.2227</v>
       </c>
       <c r="G21" t="n">
-        <v>368.5</v>
+        <v>371.6166666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1199,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1145,10 +1225,10 @@
         <v>367</v>
       </c>
       <c r="F22" t="n">
-        <v>113.8182</v>
+        <v>273.1638</v>
       </c>
       <c r="G22" t="n">
-        <v>367</v>
+        <v>371.45</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1238,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1252,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C23" t="n">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D23" t="n">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E23" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F23" t="n">
-        <v>100.2325</v>
+        <v>113.8182</v>
       </c>
       <c r="G23" t="n">
-        <v>369</v>
+        <v>371.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1277,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1206,19 +1294,19 @@
         <v>370</v>
       </c>
       <c r="C24" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D24" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E24" t="n">
         <v>370</v>
       </c>
       <c r="F24" t="n">
-        <v>116.7347</v>
+        <v>100.2325</v>
       </c>
       <c r="G24" t="n">
-        <v>370.5</v>
+        <v>371.2166666666666</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1316,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1330,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C25" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D25" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E25" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F25" t="n">
-        <v>934</v>
+        <v>116.7347</v>
       </c>
       <c r="G25" t="n">
-        <v>370.5</v>
+        <v>371.0166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1355,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1276,19 +1372,19 @@
         <v>371</v>
       </c>
       <c r="C26" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D26" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E26" t="n">
         <v>371</v>
       </c>
       <c r="F26" t="n">
-        <v>743.8982999999999</v>
+        <v>934</v>
       </c>
       <c r="G26" t="n">
-        <v>371.5</v>
+        <v>370.9166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1394,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1408,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C27" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D27" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E27" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>743.8982999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>372.5</v>
+        <v>370.8333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1433,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1447,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C28" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D28" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E28" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>372.5</v>
+        <v>370.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1472,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1390,10 +1498,10 @@
         <v>372</v>
       </c>
       <c r="F29" t="n">
-        <v>918</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>372</v>
+        <v>370.75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1511,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1525,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C30" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D30" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E30" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F30" t="n">
-        <v>2996.4926</v>
+        <v>918</v>
       </c>
       <c r="G30" t="n">
-        <v>370.5</v>
+        <v>370.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1550,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1460,10 +1576,10 @@
         <v>369</v>
       </c>
       <c r="F31" t="n">
-        <v>635.58</v>
+        <v>2996.4926</v>
       </c>
       <c r="G31" t="n">
-        <v>369</v>
+        <v>370.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1589,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1495,10 +1615,10 @@
         <v>369</v>
       </c>
       <c r="F32" t="n">
-        <v>105</v>
+        <v>635.58</v>
       </c>
       <c r="G32" t="n">
-        <v>369</v>
+        <v>370.5166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1628,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1654,10 @@
         <v>369</v>
       </c>
       <c r="F33" t="n">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="G33" t="n">
-        <v>369</v>
+        <v>370.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1667,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1681,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C34" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D34" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E34" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F34" t="n">
-        <v>232.9051</v>
+        <v>18</v>
       </c>
       <c r="G34" t="n">
-        <v>368</v>
+        <v>370.4666666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1706,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1720,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C35" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D35" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E35" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F35" t="n">
-        <v>1892.0322</v>
+        <v>232.9051</v>
       </c>
       <c r="G35" t="n">
-        <v>366.5</v>
+        <v>370.4166666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1745,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1626,19 +1762,19 @@
         <v>366</v>
       </c>
       <c r="C36" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D36" t="n">
         <v>366</v>
       </c>
       <c r="E36" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F36" t="n">
-        <v>16</v>
+        <v>1892.0322</v>
       </c>
       <c r="G36" t="n">
-        <v>365</v>
+        <v>370.35</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1784,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1798,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C37" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D37" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E37" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F37" t="n">
-        <v>2813.4766</v>
+        <v>16</v>
       </c>
       <c r="G37" t="n">
-        <v>364.5</v>
+        <v>370.2333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1823,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1705,10 +1849,10 @@
         <v>365</v>
       </c>
       <c r="F38" t="n">
-        <v>33</v>
+        <v>2813.4766</v>
       </c>
       <c r="G38" t="n">
-        <v>365</v>
+        <v>370.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1862,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1740,10 +1888,10 @@
         <v>365</v>
       </c>
       <c r="F39" t="n">
-        <v>490.8075</v>
+        <v>33</v>
       </c>
       <c r="G39" t="n">
-        <v>365</v>
+        <v>369.9833333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1901,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1775,10 +1927,10 @@
         <v>365</v>
       </c>
       <c r="F40" t="n">
-        <v>780</v>
+        <v>490.8075</v>
       </c>
       <c r="G40" t="n">
-        <v>365</v>
+        <v>369.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1940,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1810,10 +1966,10 @@
         <v>365</v>
       </c>
       <c r="F41" t="n">
-        <v>530</v>
+        <v>780</v>
       </c>
       <c r="G41" t="n">
-        <v>365</v>
+        <v>369.8333333333333</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1979,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1845,10 +2005,10 @@
         <v>365</v>
       </c>
       <c r="F42" t="n">
-        <v>260</v>
+        <v>530</v>
       </c>
       <c r="G42" t="n">
-        <v>365</v>
+        <v>369.7666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +2018,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,10 +2044,10 @@
         <v>365</v>
       </c>
       <c r="F43" t="n">
-        <v>624</v>
+        <v>260</v>
       </c>
       <c r="G43" t="n">
-        <v>365</v>
+        <v>369.65</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +2057,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +2083,10 @@
         <v>365</v>
       </c>
       <c r="F44" t="n">
-        <v>102.5151</v>
+        <v>624</v>
       </c>
       <c r="G44" t="n">
-        <v>365</v>
+        <v>369.5833333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2096,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2110,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C45" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D45" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E45" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F45" t="n">
-        <v>186.6116</v>
+        <v>102.5151</v>
       </c>
       <c r="G45" t="n">
-        <v>364.5</v>
+        <v>369.5333333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2135,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2149,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C46" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D46" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E46" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F46" t="n">
-        <v>102.6258</v>
+        <v>186.6116</v>
       </c>
       <c r="G46" t="n">
-        <v>364.5</v>
+        <v>369.4666666666666</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2174,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,10 +2200,10 @@
         <v>365</v>
       </c>
       <c r="F47" t="n">
-        <v>127.314</v>
+        <v>102.6258</v>
       </c>
       <c r="G47" t="n">
-        <v>365</v>
+        <v>369.4333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2213,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2046,19 +2230,19 @@
         <v>365</v>
       </c>
       <c r="C48" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D48" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E48" t="n">
         <v>365</v>
       </c>
       <c r="F48" t="n">
-        <v>1.4</v>
+        <v>127.314</v>
       </c>
       <c r="G48" t="n">
-        <v>365.5</v>
+        <v>369.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2252,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2266,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C49" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D49" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E49" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F49" t="n">
-        <v>574</v>
+        <v>1.4</v>
       </c>
       <c r="G49" t="n">
-        <v>366.5</v>
+        <v>369.3833333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2291,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2116,19 +2308,19 @@
         <v>367</v>
       </c>
       <c r="C50" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D50" t="n">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E50" t="n">
         <v>366</v>
       </c>
       <c r="F50" t="n">
-        <v>1013.1998</v>
+        <v>574</v>
       </c>
       <c r="G50" t="n">
-        <v>369.5</v>
+        <v>369.3333333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2330,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2344,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C51" t="n">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="D51" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E51" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F51" t="n">
-        <v>187.0037</v>
+        <v>1013.1998</v>
       </c>
       <c r="G51" t="n">
-        <v>368.5</v>
+        <v>369.35</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2369,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,22 +2383,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C52" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D52" t="n">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E52" t="n">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F52" t="n">
-        <v>2094.1463</v>
+        <v>187.0037</v>
       </c>
       <c r="G52" t="n">
-        <v>364</v>
+        <v>369.25</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2408,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2422,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C53" t="n">
         <v>363</v>
       </c>
       <c r="D53" t="n">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E53" t="n">
         <v>362</v>
       </c>
       <c r="F53" t="n">
-        <v>6.4</v>
+        <v>2094.1463</v>
       </c>
       <c r="G53" t="n">
-        <v>363</v>
+        <v>369.1166666666667</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2447,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,7 +2461,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C54" t="n">
         <v>363</v>
@@ -2262,13 +2470,13 @@
         <v>363</v>
       </c>
       <c r="E54" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>6.4</v>
       </c>
       <c r="G54" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2486,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2512,10 @@
         <v>363</v>
       </c>
       <c r="F55" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>363</v>
+        <v>368.8333333333333</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2525,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2539,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C56" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D56" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E56" t="n">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F56" t="n">
-        <v>1020.0862</v>
+        <v>50</v>
       </c>
       <c r="G56" t="n">
-        <v>359</v>
+        <v>368.55</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2564,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2578,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C57" t="n">
         <v>355</v>
       </c>
       <c r="D57" t="n">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E57" t="n">
         <v>355</v>
       </c>
       <c r="F57" t="n">
-        <v>447.31</v>
+        <v>1020.0862</v>
       </c>
       <c r="G57" t="n">
-        <v>355</v>
+        <v>368.1833333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2603,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2393,22 +2617,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C58" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D58" t="n">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E58" t="n">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F58" t="n">
-        <v>1253.3098</v>
+        <v>447.31</v>
       </c>
       <c r="G58" t="n">
-        <v>356.5</v>
+        <v>367.8166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2642,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2428,22 +2656,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C59" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D59" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E59" t="n">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F59" t="n">
-        <v>1.4</v>
+        <v>1253.3098</v>
       </c>
       <c r="G59" t="n">
-        <v>359.5</v>
+        <v>367.5666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2681,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2475,10 +2707,10 @@
         <v>361</v>
       </c>
       <c r="F60" t="n">
-        <v>50</v>
+        <v>1.4</v>
       </c>
       <c r="G60" t="n">
-        <v>361</v>
+        <v>367.3833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2720,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2510,10 +2746,10 @@
         <v>361</v>
       </c>
       <c r="F61" t="n">
-        <v>121.2901</v>
+        <v>50</v>
       </c>
       <c r="G61" t="n">
-        <v>361</v>
+        <v>367.1166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,7 +2759,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2545,10 +2785,10 @@
         <v>361</v>
       </c>
       <c r="F62" t="n">
-        <v>5.3104</v>
+        <v>121.2901</v>
       </c>
       <c r="G62" t="n">
-        <v>361</v>
+        <v>366.8833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2798,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2580,10 +2824,10 @@
         <v>361</v>
       </c>
       <c r="F63" t="n">
-        <v>50</v>
+        <v>5.3104</v>
       </c>
       <c r="G63" t="n">
-        <v>361</v>
+        <v>366.7166666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2837,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2863,10 @@
         <v>361</v>
       </c>
       <c r="F64" t="n">
-        <v>43.1268</v>
+        <v>50</v>
       </c>
       <c r="G64" t="n">
-        <v>361</v>
+        <v>366.5833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2876,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2650,24 +2902,24 @@
         <v>361</v>
       </c>
       <c r="F65" t="n">
-        <v>149.0402</v>
+        <v>43.1268</v>
       </c>
       <c r="G65" t="n">
-        <v>361</v>
+        <v>366.4166666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>361</v>
-      </c>
-      <c r="K65" t="n">
-        <v>361</v>
-      </c>
-      <c r="L65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2677,38 +2929,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C66" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D66" t="n">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E66" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F66" t="n">
-        <v>150</v>
+        <v>149.0402</v>
       </c>
       <c r="G66" t="n">
-        <v>362.5</v>
+        <v>366.35</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>361</v>
-      </c>
-      <c r="K66" t="n">
-        <v>361</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -2720,22 +2968,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C67" t="n">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D67" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E67" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F67" t="n">
-        <v>227.9</v>
+        <v>150</v>
       </c>
       <c r="G67" t="n">
-        <v>362.5</v>
+        <v>366.2833333333334</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2744,12 +2992,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>361</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
@@ -2761,22 +3007,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C68" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D68" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E68" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F68" t="n">
-        <v>440.4</v>
+        <v>227.9</v>
       </c>
       <c r="G68" t="n">
-        <v>362.5</v>
+        <v>366.1166666666667</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2786,7 +3032,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2808,10 +3058,10 @@
         <v>364</v>
       </c>
       <c r="F69" t="n">
-        <v>146.8</v>
+        <v>440.4</v>
       </c>
       <c r="G69" t="n">
-        <v>364</v>
+        <v>366.0666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2821,7 +3071,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2831,22 +3085,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C70" t="n">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D70" t="n">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E70" t="n">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F70" t="n">
-        <v>102</v>
+        <v>146.8</v>
       </c>
       <c r="G70" t="n">
-        <v>367.5</v>
+        <v>366.0666666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2856,7 +3110,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2866,22 +3124,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>369</v>
+      </c>
+      <c r="C71" t="n">
         <v>371</v>
       </c>
-      <c r="C71" t="n">
-        <v>373</v>
-      </c>
       <c r="D71" t="n">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E71" t="n">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F71" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G71" t="n">
-        <v>372</v>
+        <v>366.1166666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2891,7 +3149,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2901,22 +3163,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C72" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D72" t="n">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E72" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F72" t="n">
-        <v>535.3881</v>
+        <v>105</v>
       </c>
       <c r="G72" t="n">
-        <v>371</v>
+        <v>366.2166666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2926,7 +3188,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2939,19 +3205,19 @@
         <v>368</v>
       </c>
       <c r="C73" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D73" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E73" t="n">
         <v>368</v>
       </c>
       <c r="F73" t="n">
-        <v>150</v>
+        <v>535.3881</v>
       </c>
       <c r="G73" t="n">
-        <v>368.5</v>
+        <v>366.2333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2961,7 +3227,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2971,22 +3241,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C74" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D74" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E74" t="n">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F74" t="n">
-        <v>691.8373</v>
+        <v>150</v>
       </c>
       <c r="G74" t="n">
-        <v>371.5</v>
+        <v>366.15</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2996,7 +3266,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3006,7 +3280,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C75" t="n">
         <v>375</v>
@@ -3015,13 +3289,13 @@
         <v>375</v>
       </c>
       <c r="E75" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F75" t="n">
-        <v>957.3869999999999</v>
+        <v>691.8373</v>
       </c>
       <c r="G75" t="n">
-        <v>375</v>
+        <v>366.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3031,7 +3305,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3044,19 +3322,19 @@
         <v>375</v>
       </c>
       <c r="C76" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D76" t="n">
         <v>375</v>
       </c>
       <c r="E76" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F76" t="n">
-        <v>322.7076</v>
+        <v>957.3869999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>372.5</v>
+        <v>366.2833333333334</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3066,7 +3344,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3079,19 +3361,19 @@
         <v>375</v>
       </c>
       <c r="C77" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D77" t="n">
         <v>375</v>
       </c>
       <c r="E77" t="n">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F77" t="n">
-        <v>52.9103</v>
+        <v>322.7076</v>
       </c>
       <c r="G77" t="n">
-        <v>372.5</v>
+        <v>366.2666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3101,10 +3383,12 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3123,16 +3407,16 @@
         <v>375</v>
       </c>
       <c r="F78" t="n">
-        <v>4586.0369</v>
+        <v>52.9103</v>
       </c>
       <c r="G78" t="n">
-        <v>375</v>
+        <v>366.3333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3146,28 +3430,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C79" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D79" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E79" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F79" t="n">
-        <v>626.4732</v>
+        <v>4586.0369</v>
       </c>
       <c r="G79" t="n">
-        <v>372.5</v>
+        <v>366.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3181,28 +3465,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C80" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D80" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="E80" t="n">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F80" t="n">
-        <v>180.2731</v>
+        <v>626.4732</v>
       </c>
       <c r="G80" t="n">
-        <v>373</v>
+        <v>366.3833333333333</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3216,22 +3500,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C81" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D81" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E81" t="n">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F81" t="n">
-        <v>11196.0083</v>
+        <v>180.2731</v>
       </c>
       <c r="G81" t="n">
-        <v>377.5</v>
+        <v>366.4833333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3251,22 +3535,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
+        <v>377</v>
+      </c>
+      <c r="C82" t="n">
         <v>379</v>
       </c>
-      <c r="C82" t="n">
-        <v>380</v>
-      </c>
       <c r="D82" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E82" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F82" t="n">
-        <v>84.17570000000001</v>
+        <v>11196.0083</v>
       </c>
       <c r="G82" t="n">
-        <v>379.5</v>
+        <v>366.6833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3286,22 +3570,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C83" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D83" t="n">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E83" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F83" t="n">
-        <v>934.2442</v>
+        <v>84.17570000000001</v>
       </c>
       <c r="G83" t="n">
-        <v>381.5</v>
+        <v>366.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3321,22 +3605,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C84" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D84" t="n">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E84" t="n">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F84" t="n">
-        <v>8947.189</v>
+        <v>934.2442</v>
       </c>
       <c r="G84" t="n">
-        <v>383.5</v>
+        <v>367.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3356,28 +3640,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C85" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D85" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E85" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F85" t="n">
-        <v>792.1287</v>
+        <v>8947.189</v>
       </c>
       <c r="G85" t="n">
-        <v>385.5</v>
+        <v>367.3333333333333</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3391,7 +3675,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C86" t="n">
         <v>387</v>
@@ -3400,13 +3684,13 @@
         <v>387</v>
       </c>
       <c r="E86" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F86" t="n">
-        <v>173.9459</v>
+        <v>792.1287</v>
       </c>
       <c r="G86" t="n">
-        <v>387</v>
+        <v>367.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3426,7 +3710,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C87" t="n">
         <v>387</v>
@@ -3435,13 +3719,13 @@
         <v>387</v>
       </c>
       <c r="E87" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F87" t="n">
-        <v>134.1511</v>
+        <v>173.9459</v>
       </c>
       <c r="G87" t="n">
-        <v>387</v>
+        <v>367.85</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3464,19 +3748,19 @@
         <v>383</v>
       </c>
       <c r="C88" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D88" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E88" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F88" t="n">
-        <v>666.7572</v>
+        <v>134.1511</v>
       </c>
       <c r="G88" t="n">
-        <v>386</v>
+        <v>368.0833333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3496,22 +3780,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>383</v>
+      </c>
+      <c r="C89" t="n">
+        <v>385</v>
+      </c>
+      <c r="D89" t="n">
+        <v>385</v>
+      </c>
+      <c r="E89" t="n">
         <v>382</v>
       </c>
-      <c r="C89" t="n">
-        <v>387</v>
-      </c>
-      <c r="D89" t="n">
-        <v>387</v>
-      </c>
-      <c r="E89" t="n">
-        <v>381</v>
-      </c>
       <c r="F89" t="n">
-        <v>600.9299999999999</v>
+        <v>666.7572</v>
       </c>
       <c r="G89" t="n">
-        <v>386</v>
+        <v>368.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3531,22 +3815,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C90" t="n">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D90" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E90" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F90" t="n">
-        <v>853.3</v>
+        <v>600.9299999999999</v>
       </c>
       <c r="G90" t="n">
-        <v>384.5</v>
+        <v>368.55</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3566,22 +3850,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C91" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D91" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E91" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F91" t="n">
-        <v>595.0457</v>
+        <v>853.3</v>
       </c>
       <c r="G91" t="n">
-        <v>380.5</v>
+        <v>368.7666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3601,22 +3885,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C92" t="n">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
         <v>385</v>
       </c>
       <c r="E92" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F92" t="n">
-        <v>1089</v>
+        <v>595.0457</v>
       </c>
       <c r="G92" t="n">
-        <v>381.5</v>
+        <v>368.9333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3636,22 +3920,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C93" t="n">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D93" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E93" t="n">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F93" t="n">
-        <v>48.03367875</v>
+        <v>1089</v>
       </c>
       <c r="G93" t="n">
-        <v>385</v>
+        <v>369.1833333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3671,22 +3955,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C94" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D94" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E94" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F94" t="n">
-        <v>142.4478</v>
+        <v>48.03367875</v>
       </c>
       <c r="G94" t="n">
-        <v>385.5</v>
+        <v>369.4666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3706,22 +3990,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C95" t="n">
         <v>385</v>
       </c>
       <c r="D95" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E95" t="n">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F95" t="n">
-        <v>2356.6228</v>
+        <v>142.4478</v>
       </c>
       <c r="G95" t="n">
-        <v>385</v>
+        <v>369.7666666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3741,22 +4025,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C96" t="n">
         <v>385</v>
       </c>
       <c r="D96" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E96" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F96" t="n">
-        <v>2262.5993</v>
+        <v>2356.6228</v>
       </c>
       <c r="G96" t="n">
-        <v>385</v>
+        <v>370.0833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3776,7 +4060,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C97" t="n">
         <v>385</v>
@@ -3785,13 +4069,13 @@
         <v>385</v>
       </c>
       <c r="E97" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F97" t="n">
-        <v>841.7035</v>
+        <v>2262.5993</v>
       </c>
       <c r="G97" t="n">
-        <v>385</v>
+        <v>370.4333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3811,22 +4095,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C98" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D98" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E98" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F98" t="n">
-        <v>1421</v>
+        <v>841.7035</v>
       </c>
       <c r="G98" t="n">
-        <v>385.5</v>
+        <v>370.7666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3849,19 +4133,19 @@
         <v>384</v>
       </c>
       <c r="C99" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D99" t="n">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E99" t="n">
         <v>384</v>
       </c>
       <c r="F99" t="n">
-        <v>341.4549</v>
+        <v>1421</v>
       </c>
       <c r="G99" t="n">
-        <v>385</v>
+        <v>371.1166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3881,22 +4165,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C100" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D100" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E100" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F100" t="n">
-        <v>1457.0146</v>
+        <v>341.4549</v>
       </c>
       <c r="G100" t="n">
-        <v>384.5</v>
+        <v>371.4333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3916,22 +4200,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C101" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D101" t="n">
         <v>385</v>
       </c>
       <c r="E101" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F101" t="n">
-        <v>615</v>
+        <v>1457.0146</v>
       </c>
       <c r="G101" t="n">
-        <v>384.5</v>
+        <v>371.7666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3954,7 +4238,7 @@
         <v>384</v>
       </c>
       <c r="C102" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D102" t="n">
         <v>385</v>
@@ -3963,10 +4247,10 @@
         <v>384</v>
       </c>
       <c r="F102" t="n">
-        <v>663</v>
+        <v>615</v>
       </c>
       <c r="G102" t="n">
-        <v>384.5</v>
+        <v>372.0833333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3986,22 +4270,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>384</v>
+      </c>
+      <c r="C103" t="n">
         <v>385</v>
       </c>
-      <c r="C103" t="n">
-        <v>386</v>
-      </c>
       <c r="D103" t="n">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E103" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F103" t="n">
-        <v>134</v>
+        <v>663</v>
       </c>
       <c r="G103" t="n">
-        <v>385.5</v>
+        <v>372.4166666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4021,7 +4305,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C104" t="n">
         <v>386</v>
@@ -4030,13 +4314,13 @@
         <v>386</v>
       </c>
       <c r="E104" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F104" t="n">
-        <v>1036</v>
+        <v>134</v>
       </c>
       <c r="G104" t="n">
-        <v>386</v>
+        <v>372.7666666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4056,22 +4340,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C105" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D105" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E105" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F105" t="n">
-        <v>154</v>
+        <v>1036</v>
       </c>
       <c r="G105" t="n">
-        <v>385.5</v>
+        <v>373.1166666666667</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4091,7 +4375,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C106" t="n">
         <v>385</v>
@@ -4100,13 +4384,13 @@
         <v>385</v>
       </c>
       <c r="E106" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F106" t="n">
-        <v>878</v>
+        <v>154</v>
       </c>
       <c r="G106" t="n">
-        <v>385</v>
+        <v>373.4666666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4129,19 +4413,19 @@
         <v>382</v>
       </c>
       <c r="C107" t="n">
+        <v>385</v>
+      </c>
+      <c r="D107" t="n">
+        <v>385</v>
+      </c>
+      <c r="E107" t="n">
         <v>382</v>
       </c>
-      <c r="D107" t="n">
-        <v>383</v>
-      </c>
-      <c r="E107" t="n">
-        <v>380</v>
-      </c>
       <c r="F107" t="n">
-        <v>824.5925</v>
+        <v>878</v>
       </c>
       <c r="G107" t="n">
-        <v>383.5</v>
+        <v>373.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4167,16 +4451,16 @@
         <v>382</v>
       </c>
       <c r="D108" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E108" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F108" t="n">
-        <v>1465.365</v>
+        <v>824.5925</v>
       </c>
       <c r="G108" t="n">
-        <v>382</v>
+        <v>374.0833333333333</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4208,10 +4492,10 @@
         <v>382</v>
       </c>
       <c r="F109" t="n">
-        <v>894.7728</v>
+        <v>1465.365</v>
       </c>
       <c r="G109" t="n">
-        <v>382</v>
+        <v>374.35</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4243,10 +4527,10 @@
         <v>382</v>
       </c>
       <c r="F110" t="n">
-        <v>1957.9006</v>
+        <v>894.7728</v>
       </c>
       <c r="G110" t="n">
-        <v>382</v>
+        <v>374.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4278,10 +4562,10 @@
         <v>382</v>
       </c>
       <c r="F111" t="n">
-        <v>358.26</v>
+        <v>1957.9006</v>
       </c>
       <c r="G111" t="n">
-        <v>382</v>
+        <v>374.7666666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4301,22 +4585,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C112" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D112" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E112" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F112" t="n">
-        <v>1488.5948</v>
+        <v>358.26</v>
       </c>
       <c r="G112" t="n">
-        <v>381.5</v>
+        <v>375.05</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4336,22 +4620,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C113" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D113" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E113" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F113" t="n">
-        <v>583.9158</v>
+        <v>1488.5948</v>
       </c>
       <c r="G113" t="n">
-        <v>381.5</v>
+        <v>375.35</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4371,22 +4655,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>379</v>
+      </c>
+      <c r="C114" t="n">
         <v>382</v>
       </c>
-      <c r="C114" t="n">
-        <v>383</v>
-      </c>
       <c r="D114" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E114" t="n">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F114" t="n">
-        <v>270.5068</v>
+        <v>583.9158</v>
       </c>
       <c r="G114" t="n">
-        <v>382.5</v>
+        <v>375.6666666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4406,7 +4690,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C115" t="n">
         <v>383</v>
@@ -4415,13 +4699,13 @@
         <v>383</v>
       </c>
       <c r="E115" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F115" t="n">
-        <v>163.0123</v>
+        <v>270.5068</v>
       </c>
       <c r="G115" t="n">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4441,22 +4725,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C116" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D116" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E116" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F116" t="n">
-        <v>43.5082</v>
+        <v>163.0123</v>
       </c>
       <c r="G116" t="n">
-        <v>382.5</v>
+        <v>376.3333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4476,22 +4760,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C117" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D117" t="n">
         <v>382</v>
       </c>
       <c r="E117" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F117" t="n">
-        <v>6500.4252</v>
+        <v>43.5082</v>
       </c>
       <c r="G117" t="n">
-        <v>381.5</v>
+        <v>376.7833333333334</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4517,16 +4801,16 @@
         <v>381</v>
       </c>
       <c r="D118" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E118" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F118" t="n">
-        <v>946.6461</v>
+        <v>6500.4252</v>
       </c>
       <c r="G118" t="n">
-        <v>381</v>
+        <v>377.2166666666666</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4549,19 +4833,19 @@
         <v>381</v>
       </c>
       <c r="C119" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D119" t="n">
         <v>381</v>
       </c>
       <c r="E119" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F119" t="n">
-        <v>3671.4402</v>
+        <v>946.6461</v>
       </c>
       <c r="G119" t="n">
-        <v>380.5</v>
+        <v>377.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4581,22 +4865,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C120" t="n">
         <v>380</v>
       </c>
       <c r="D120" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E120" t="n">
         <v>380</v>
       </c>
       <c r="F120" t="n">
-        <v>2185.694</v>
+        <v>3671.4402</v>
       </c>
       <c r="G120" t="n">
-        <v>380</v>
+        <v>377.9166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4616,22 +4900,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C121" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D121" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E121" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F121" t="n">
-        <v>700.6754</v>
+        <v>2185.694</v>
       </c>
       <c r="G121" t="n">
-        <v>380.5</v>
+        <v>378.2333333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4663,10 +4947,10 @@
         <v>381</v>
       </c>
       <c r="F122" t="n">
-        <v>49</v>
+        <v>700.6754</v>
       </c>
       <c r="G122" t="n">
-        <v>381</v>
+        <v>378.5666666666667</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4698,10 +4982,10 @@
         <v>381</v>
       </c>
       <c r="F123" t="n">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="G123" t="n">
-        <v>381</v>
+        <v>378.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4733,10 +5017,10 @@
         <v>381</v>
       </c>
       <c r="F124" t="n">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G124" t="n">
-        <v>381</v>
+        <v>379.2333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4768,10 +5052,10 @@
         <v>381</v>
       </c>
       <c r="F125" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G125" t="n">
-        <v>381</v>
+        <v>379.5666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4791,22 +5075,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C126" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D126" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E126" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F126" t="n">
-        <v>2032.3401</v>
+        <v>150</v>
       </c>
       <c r="G126" t="n">
-        <v>381.5</v>
+        <v>379.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4838,10 +5122,10 @@
         <v>382</v>
       </c>
       <c r="F127" t="n">
-        <v>12.12</v>
+        <v>2032.3401</v>
       </c>
       <c r="G127" t="n">
-        <v>382</v>
+        <v>380.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4861,22 +5145,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C128" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D128" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E128" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F128" t="n">
-        <v>100</v>
+        <v>12.12</v>
       </c>
       <c r="G128" t="n">
-        <v>381</v>
+        <v>380.55</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4896,22 +5180,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>381</v>
+      </c>
+      <c r="C129" t="n">
         <v>380</v>
       </c>
-      <c r="C129" t="n">
-        <v>378</v>
-      </c>
       <c r="D129" t="n">
+        <v>381</v>
+      </c>
+      <c r="E129" t="n">
         <v>380</v>
       </c>
-      <c r="E129" t="n">
-        <v>378</v>
-      </c>
       <c r="F129" t="n">
-        <v>5865.8242</v>
+        <v>100</v>
       </c>
       <c r="G129" t="n">
-        <v>379</v>
+        <v>380.8166666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4931,22 +5215,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C130" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D130" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E130" t="n">
         <v>378</v>
       </c>
       <c r="F130" t="n">
-        <v>1928.2604</v>
+        <v>5865.8242</v>
       </c>
       <c r="G130" t="n">
-        <v>378.5</v>
+        <v>381.05</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4969,19 +5253,19 @@
         <v>378</v>
       </c>
       <c r="C131" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D131" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E131" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F131" t="n">
-        <v>279.9075</v>
+        <v>1928.2604</v>
       </c>
       <c r="G131" t="n">
-        <v>378</v>
+        <v>381.1833333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5001,10 +5285,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>378</v>
+      </c>
+      <c r="C132" t="n">
         <v>377</v>
-      </c>
-      <c r="C132" t="n">
-        <v>378</v>
       </c>
       <c r="D132" t="n">
         <v>378</v>
@@ -5013,10 +5297,10 @@
         <v>377</v>
       </c>
       <c r="F132" t="n">
-        <v>2497.2409</v>
+        <v>279.9075</v>
       </c>
       <c r="G132" t="n">
-        <v>377.5</v>
+        <v>381.25</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5039,19 +5323,19 @@
         <v>377</v>
       </c>
       <c r="C133" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D133" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E133" t="n">
         <v>377</v>
       </c>
       <c r="F133" t="n">
-        <v>84.1491</v>
+        <v>2497.2409</v>
       </c>
       <c r="G133" t="n">
-        <v>377.5</v>
+        <v>381.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5074,28 +5358,32 @@
         <v>377</v>
       </c>
       <c r="C134" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D134" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E134" t="n">
         <v>377</v>
       </c>
       <c r="F134" t="n">
-        <v>25</v>
+        <v>84.1491</v>
       </c>
       <c r="G134" t="n">
-        <v>377.5</v>
+        <v>381.55</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>378</v>
+      </c>
+      <c r="K134" t="n">
+        <v>378</v>
+      </c>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
@@ -5106,22 +5394,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C135" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D135" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E135" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F135" t="n">
-        <v>123.6452</v>
+        <v>25</v>
       </c>
       <c r="G135" t="n">
-        <v>378.5</v>
+        <v>381.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5130,8 +5418,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>378</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5141,7 +5435,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C136" t="n">
         <v>379</v>
@@ -5150,13 +5444,13 @@
         <v>379</v>
       </c>
       <c r="E136" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F136" t="n">
-        <v>305</v>
+        <v>123.6452</v>
       </c>
       <c r="G136" t="n">
-        <v>379</v>
+        <v>381.6666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5165,8 +5459,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>378</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5176,22 +5476,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C137" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D137" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E137" t="n">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F137" t="n">
-        <v>436.0673</v>
+        <v>305</v>
       </c>
       <c r="G137" t="n">
-        <v>378</v>
+        <v>381.8166666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5200,8 +5500,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>378</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5214,19 +5520,19 @@
         <v>377</v>
       </c>
       <c r="C138" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D138" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E138" t="n">
         <v>377</v>
       </c>
       <c r="F138" t="n">
-        <v>1321.0532</v>
+        <v>436.0673</v>
       </c>
       <c r="G138" t="n">
-        <v>378</v>
+        <v>381.85</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5235,8 +5541,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>378</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5246,7 +5558,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C139" t="n">
         <v>379</v>
@@ -5255,13 +5567,13 @@
         <v>379</v>
       </c>
       <c r="E139" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F139" t="n">
-        <v>718</v>
+        <v>1321.0532</v>
       </c>
       <c r="G139" t="n">
-        <v>379</v>
+        <v>381.9166666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5270,8 +5582,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>378</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5284,19 +5602,19 @@
         <v>378</v>
       </c>
       <c r="C140" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D140" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E140" t="n">
         <v>378</v>
       </c>
       <c r="F140" t="n">
-        <v>615.838</v>
+        <v>718</v>
       </c>
       <c r="G140" t="n">
-        <v>378.5</v>
+        <v>382.0666666666667</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5305,8 +5623,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>378</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5328,10 +5652,10 @@
         <v>378</v>
       </c>
       <c r="F141" t="n">
-        <v>100</v>
+        <v>615.838</v>
       </c>
       <c r="G141" t="n">
-        <v>378</v>
+        <v>382.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5340,8 +5664,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>378</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5354,19 +5684,19 @@
         <v>378</v>
       </c>
       <c r="C142" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D142" t="n">
         <v>378</v>
       </c>
       <c r="E142" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F142" t="n">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="G142" t="n">
-        <v>377.5</v>
+        <v>382.0833333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5375,8 +5705,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>378</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5386,22 +5722,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>378</v>
+      </c>
+      <c r="C143" t="n">
         <v>377</v>
       </c>
-      <c r="C143" t="n">
-        <v>379</v>
-      </c>
       <c r="D143" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E143" t="n">
         <v>377</v>
       </c>
       <c r="F143" t="n">
-        <v>668</v>
+        <v>183</v>
       </c>
       <c r="G143" t="n">
-        <v>378</v>
+        <v>382.0333333333334</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5410,8 +5746,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>378</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5433,10 +5775,10 @@
         <v>377</v>
       </c>
       <c r="F144" t="n">
-        <v>99</v>
+        <v>668</v>
       </c>
       <c r="G144" t="n">
-        <v>379</v>
+        <v>381.9666666666666</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5445,8 +5787,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>378</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5456,22 +5804,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C145" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D145" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E145" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="G145" t="n">
-        <v>378.5</v>
+        <v>381.8833333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5480,8 +5828,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>378</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5491,22 +5845,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C146" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D146" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E146" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F146" t="n">
-        <v>48.0337</v>
+        <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>377</v>
+        <v>381.7333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5515,8 +5869,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>378</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5526,22 +5886,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C147" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D147" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E147" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F147" t="n">
-        <v>137.767</v>
+        <v>48.0337</v>
       </c>
       <c r="G147" t="n">
-        <v>377.5</v>
+        <v>381.55</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5550,8 +5910,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>378</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5561,7 +5927,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C148" t="n">
         <v>379</v>
@@ -5570,13 +5936,13 @@
         <v>379</v>
       </c>
       <c r="E148" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F148" t="n">
-        <v>212.233</v>
+        <v>137.767</v>
       </c>
       <c r="G148" t="n">
-        <v>379</v>
+        <v>381.4166666666667</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5585,8 +5951,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>378</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5596,22 +5968,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C149" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D149" t="n">
         <v>379</v>
       </c>
       <c r="E149" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F149" t="n">
-        <v>1345.4401</v>
+        <v>212.233</v>
       </c>
       <c r="G149" t="n">
-        <v>378.5</v>
+        <v>381.3166666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5620,8 +5992,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>378</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5634,7 +6012,7 @@
         <v>378</v>
       </c>
       <c r="C150" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D150" t="n">
         <v>379</v>
@@ -5643,10 +6021,10 @@
         <v>378</v>
       </c>
       <c r="F150" t="n">
-        <v>342</v>
+        <v>1345.4401</v>
       </c>
       <c r="G150" t="n">
-        <v>378.5</v>
+        <v>381.1666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5655,8 +6033,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>378</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5669,19 +6053,19 @@
         <v>378</v>
       </c>
       <c r="C151" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D151" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E151" t="n">
         <v>378</v>
       </c>
       <c r="F151" t="n">
-        <v>62</v>
+        <v>342</v>
       </c>
       <c r="G151" t="n">
-        <v>378.5</v>
+        <v>381.1166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5690,8 +6074,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>378</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5704,19 +6094,19 @@
         <v>378</v>
       </c>
       <c r="C152" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D152" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E152" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F152" t="n">
-        <v>577</v>
+        <v>62</v>
       </c>
       <c r="G152" t="n">
-        <v>379</v>
+        <v>381.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5725,8 +6115,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>378</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5739,19 +6135,19 @@
         <v>378</v>
       </c>
       <c r="C153" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D153" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E153" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F153" t="n">
-        <v>1059.4647</v>
+        <v>577</v>
       </c>
       <c r="G153" t="n">
-        <v>379</v>
+        <v>381.0333333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5760,8 +6156,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>378</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5774,19 +6176,19 @@
         <v>378</v>
       </c>
       <c r="C154" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D154" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E154" t="n">
         <v>378</v>
       </c>
       <c r="F154" t="n">
-        <v>299</v>
+        <v>1059.4647</v>
       </c>
       <c r="G154" t="n">
-        <v>379</v>
+        <v>380.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5795,8 +6197,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>378</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5806,7 +6214,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C155" t="n">
         <v>380</v>
@@ -5815,13 +6223,13 @@
         <v>380</v>
       </c>
       <c r="E155" t="n">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F155" t="n">
-        <v>164.2674</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
-        <v>380</v>
+        <v>380.8166666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5830,8 +6238,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>378</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5844,19 +6258,19 @@
         <v>380</v>
       </c>
       <c r="C156" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D156" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E156" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F156" t="n">
-        <v>876.7912</v>
+        <v>164.2674</v>
       </c>
       <c r="G156" t="n">
-        <v>380.5</v>
+        <v>380.7333333333333</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5865,8 +6279,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>378</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5879,19 +6299,19 @@
         <v>380</v>
       </c>
       <c r="C157" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D157" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E157" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F157" t="n">
-        <v>207.6572</v>
+        <v>876.7912</v>
       </c>
       <c r="G157" t="n">
-        <v>380.5</v>
+        <v>380.6666666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5900,8 +6320,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>378</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5923,10 +6349,10 @@
         <v>380</v>
       </c>
       <c r="F158" t="n">
-        <v>587.4453</v>
+        <v>207.6572</v>
       </c>
       <c r="G158" t="n">
-        <v>380</v>
+        <v>380.5833333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5935,8 +6361,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>378</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5958,10 +6390,10 @@
         <v>380</v>
       </c>
       <c r="F159" t="n">
-        <v>2190.3042</v>
+        <v>587.4453</v>
       </c>
       <c r="G159" t="n">
-        <v>380</v>
+        <v>380.4833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5970,8 +6402,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>378</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5981,22 +6419,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C160" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D160" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E160" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F160" t="n">
-        <v>243.2109</v>
+        <v>2190.3042</v>
       </c>
       <c r="G160" t="n">
-        <v>379.5</v>
+        <v>380.4166666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6005,8 +6443,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>378</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6028,10 +6472,10 @@
         <v>379</v>
       </c>
       <c r="F161" t="n">
-        <v>567.4383</v>
+        <v>243.2109</v>
       </c>
       <c r="G161" t="n">
-        <v>379</v>
+        <v>380.3166666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6040,8 +6484,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>378</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6063,10 +6513,10 @@
         <v>379</v>
       </c>
       <c r="F162" t="n">
-        <v>414.0768</v>
+        <v>567.4383</v>
       </c>
       <c r="G162" t="n">
-        <v>379</v>
+        <v>380.2333333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6075,8 +6525,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>378</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6098,10 +6554,10 @@
         <v>379</v>
       </c>
       <c r="F163" t="n">
-        <v>169.905</v>
+        <v>414.0768</v>
       </c>
       <c r="G163" t="n">
-        <v>379</v>
+        <v>380.1333333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6110,8 +6566,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>378</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6133,10 +6595,10 @@
         <v>379</v>
       </c>
       <c r="F164" t="n">
-        <v>184.711</v>
+        <v>169.905</v>
       </c>
       <c r="G164" t="n">
-        <v>379</v>
+        <v>380.0166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6145,8 +6607,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>378</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6168,10 +6636,10 @@
         <v>379</v>
       </c>
       <c r="F165" t="n">
-        <v>689.748</v>
+        <v>184.711</v>
       </c>
       <c r="G165" t="n">
-        <v>379</v>
+        <v>379.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6180,8 +6648,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>378</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6203,10 +6677,10 @@
         <v>379</v>
       </c>
       <c r="F166" t="n">
-        <v>266.94</v>
+        <v>689.748</v>
       </c>
       <c r="G166" t="n">
-        <v>379</v>
+        <v>379.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6215,8 +6689,14 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>378</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6226,22 +6706,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C167" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D167" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E167" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F167" t="n">
-        <v>5.9077</v>
+        <v>266.94</v>
       </c>
       <c r="G167" t="n">
-        <v>378.5</v>
+        <v>379.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6250,8 +6730,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>378</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6273,10 +6759,10 @@
         <v>378</v>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>5.9077</v>
       </c>
       <c r="G168" t="n">
-        <v>378</v>
+        <v>379.6333333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6285,8 +6771,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>378</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6308,10 +6800,10 @@
         <v>378</v>
       </c>
       <c r="F169" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G169" t="n">
-        <v>378</v>
+        <v>379.5666666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6320,8 +6812,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>378</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6334,30 +6832,77 @@
         <v>378</v>
       </c>
       <c r="C170" t="n">
+        <v>378</v>
+      </c>
+      <c r="D170" t="n">
+        <v>378</v>
+      </c>
+      <c r="E170" t="n">
+        <v>378</v>
+      </c>
+      <c r="F170" t="n">
+        <v>100</v>
+      </c>
+      <c r="G170" t="n">
+        <v>379.5</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>378</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>378</v>
+      </c>
+      <c r="C171" t="n">
         <v>380</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D171" t="n">
         <v>380</v>
       </c>
-      <c r="E170" t="n">
-        <v>378</v>
-      </c>
-      <c r="F170" t="n">
+      <c r="E171" t="n">
+        <v>378</v>
+      </c>
+      <c r="F171" t="n">
         <v>2393.6329</v>
       </c>
-      <c r="G170" t="n">
-        <v>379</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="G171" t="n">
+        <v>379.4666666666666</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>378</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-21 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-21 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N168"/>
+  <dimension ref="A1:N239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C2" t="n">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D2" t="n">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E2" t="n">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F2" t="n">
-        <v>119.9999</v>
+        <v>159</v>
       </c>
       <c r="G2" t="n">
-        <v>372.5</v>
+        <v>6044.034100000003</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C3" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D3" t="n">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E3" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>4275.5578</v>
       </c>
       <c r="G3" t="n">
-        <v>371</v>
+        <v>1768.476300000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>364</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C4" t="n">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D4" t="n">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E4" t="n">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>240.382</v>
       </c>
       <c r="G4" t="n">
-        <v>370.5</v>
+        <v>2008.858300000003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>360</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C5" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D5" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E5" t="n">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F5" t="n">
-        <v>7.8538</v>
+        <v>14194.5745</v>
       </c>
       <c r="G5" t="n">
-        <v>371</v>
+        <v>16203.4328</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>364</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +600,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C6" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D6" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E6" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F6" t="n">
-        <v>238</v>
+        <v>4312.5922</v>
       </c>
       <c r="G6" t="n">
-        <v>371</v>
+        <v>20516.02500000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -607,7 +625,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +640,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C7" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D7" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="E7" t="n">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F7" t="n">
-        <v>247.6746</v>
+        <v>1052.7427</v>
       </c>
       <c r="G7" t="n">
-        <v>371</v>
+        <v>20516.02500000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,7 +665,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,22 +680,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C8" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="D8" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E8" t="n">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F8" t="n">
-        <v>2155.2227</v>
+        <v>11.04</v>
       </c>
       <c r="G8" t="n">
-        <v>370.5</v>
+        <v>20516.02500000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -679,7 +705,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,22 +720,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C9" t="n">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D9" t="n">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E9" t="n">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F9" t="n">
-        <v>273.1638</v>
+        <v>2992.56</v>
       </c>
       <c r="G9" t="n">
-        <v>368.5</v>
+        <v>23508.58500000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -715,7 +745,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,36 +760,36 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C10" t="n">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="D10" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="E10" t="n">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="F10" t="n">
-        <v>113.8182</v>
+        <v>1314.7706</v>
       </c>
       <c r="G10" t="n">
-        <v>367</v>
+        <v>22193.81440000001</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>367</v>
-      </c>
-      <c r="K10" t="n">
-        <v>367</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -766,38 +800,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C11" t="n">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="D11" t="n">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="E11" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F11" t="n">
-        <v>100.2325</v>
+        <v>6043.1512</v>
       </c>
       <c r="G11" t="n">
-        <v>369</v>
+        <v>28236.96560000001</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>367</v>
-      </c>
-      <c r="K11" t="n">
-        <v>367</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M11" t="n">
@@ -810,38 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C12" t="n">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="D12" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E12" t="n">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="F12" t="n">
-        <v>116.7347</v>
+        <v>12490.7158</v>
       </c>
       <c r="G12" t="n">
-        <v>370.5</v>
+        <v>15746.24980000001</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>371</v>
-      </c>
-      <c r="K12" t="n">
-        <v>367</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M12" t="n">
@@ -854,36 +880,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C13" t="n">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D13" t="n">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E13" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F13" t="n">
-        <v>934</v>
+        <v>3803.6982</v>
       </c>
       <c r="G13" t="n">
-        <v>370.5</v>
+        <v>19549.94800000001</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>370</v>
-      </c>
-      <c r="K13" t="n">
-        <v>370</v>
-      </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -894,38 +920,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C14" t="n">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D14" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E14" t="n">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F14" t="n">
-        <v>743.8982999999999</v>
+        <v>2033</v>
       </c>
       <c r="G14" t="n">
-        <v>371.5</v>
+        <v>17516.94800000001</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>371</v>
-      </c>
-      <c r="K14" t="n">
-        <v>370</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -938,38 +960,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C15" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D15" t="n">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="E15" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>1925.715</v>
       </c>
       <c r="G15" t="n">
-        <v>372.5</v>
+        <v>19442.66300000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>372</v>
-      </c>
-      <c r="K15" t="n">
-        <v>370</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M15" t="n">
@@ -982,36 +1000,36 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C16" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D16" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E16" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>4141.6998</v>
       </c>
       <c r="G16" t="n">
-        <v>372.5</v>
+        <v>19442.66300000001</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>373</v>
-      </c>
-      <c r="K16" t="n">
-        <v>373</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1022,38 +1040,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C17" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D17" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E17" t="n">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F17" t="n">
-        <v>918</v>
+        <v>1.309</v>
       </c>
       <c r="G17" t="n">
-        <v>372</v>
+        <v>19443.97200000001</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>372</v>
-      </c>
-      <c r="K17" t="n">
-        <v>373</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M17" t="n">
@@ -1066,38 +1080,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C18" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D18" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E18" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F18" t="n">
-        <v>2996.4926</v>
+        <v>11318.0197</v>
       </c>
       <c r="G18" t="n">
-        <v>370.5</v>
+        <v>8125.952300000008</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>372</v>
-      </c>
-      <c r="K18" t="n">
-        <v>373</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M18" t="n">
@@ -1110,36 +1120,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C19" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D19" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E19" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F19" t="n">
-        <v>635.58</v>
+        <v>99.98560000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>369</v>
+        <v>8125.952300000008</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>369</v>
-      </c>
-      <c r="K19" t="n">
-        <v>369</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1150,38 +1160,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C20" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D20" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="E20" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F20" t="n">
-        <v>105</v>
+        <v>1181.1911</v>
       </c>
       <c r="G20" t="n">
-        <v>369</v>
+        <v>8125.952300000008</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>369</v>
-      </c>
-      <c r="K20" t="n">
-        <v>369</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M20" t="n">
@@ -1194,38 +1200,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="C21" t="n">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D21" t="n">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E21" t="n">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>1659.4558</v>
       </c>
       <c r="G21" t="n">
-        <v>369</v>
+        <v>6466.496500000008</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>369</v>
-      </c>
-      <c r="K21" t="n">
-        <v>369</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1238,22 +1240,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="C22" t="n">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="D22" t="n">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="E22" t="n">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="F22" t="n">
-        <v>232.9051</v>
+        <v>1204.1418</v>
       </c>
       <c r="G22" t="n">
-        <v>368</v>
+        <v>6466.496500000008</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1263,7 +1265,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1274,22 +1280,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C23" t="n">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="D23" t="n">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="E23" t="n">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F23" t="n">
-        <v>1892.0322</v>
+        <v>5648.9503</v>
       </c>
       <c r="G23" t="n">
-        <v>366.5</v>
+        <v>12115.44680000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1299,7 +1305,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1310,22 +1320,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="C24" t="n">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D24" t="n">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E24" t="n">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="F24" t="n">
-        <v>16</v>
+        <v>1658.1936</v>
       </c>
       <c r="G24" t="n">
-        <v>365</v>
+        <v>10457.25320000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1335,7 +1345,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1346,22 +1360,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C25" t="n">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="D25" t="n">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="E25" t="n">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="F25" t="n">
-        <v>2813.4766</v>
+        <v>691.4</v>
       </c>
       <c r="G25" t="n">
-        <v>364.5</v>
+        <v>10457.25320000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1371,7 +1385,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1382,22 +1400,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C26" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D26" t="n">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E26" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F26" t="n">
-        <v>33</v>
+        <v>3992.8198</v>
       </c>
       <c r="G26" t="n">
-        <v>365</v>
+        <v>6464.433400000008</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1407,7 +1425,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1418,22 +1440,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C27" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D27" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="E27" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F27" t="n">
-        <v>490.8075</v>
+        <v>2219.5864</v>
       </c>
       <c r="G27" t="n">
-        <v>365</v>
+        <v>6464.433400000008</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1443,7 +1465,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1454,22 +1480,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C28" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D28" t="n">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="E28" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F28" t="n">
-        <v>780</v>
+        <v>3413.0747851</v>
       </c>
       <c r="G28" t="n">
-        <v>365</v>
+        <v>6464.433400000008</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1479,7 +1505,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1490,22 +1520,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C29" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D29" t="n">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E29" t="n">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F29" t="n">
-        <v>530</v>
+        <v>3045.6334149</v>
       </c>
       <c r="G29" t="n">
-        <v>365</v>
+        <v>6464.433400000008</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1515,7 +1545,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1526,22 +1560,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="C30" t="n">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="D30" t="n">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="E30" t="n">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="F30" t="n">
-        <v>260</v>
+        <v>8496.811900000001</v>
       </c>
       <c r="G30" t="n">
-        <v>365</v>
+        <v>-2032.378499999993</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1551,7 +1585,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1562,22 +1600,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C31" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D31" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E31" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F31" t="n">
-        <v>624</v>
+        <v>687.5346</v>
       </c>
       <c r="G31" t="n">
-        <v>365</v>
+        <v>-2719.913099999992</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1587,7 +1625,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1598,22 +1640,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C32" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D32" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E32" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F32" t="n">
-        <v>102.5151</v>
+        <v>31.613</v>
       </c>
       <c r="G32" t="n">
-        <v>365</v>
+        <v>-2688.300099999993</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1623,7 +1665,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1634,22 +1680,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C33" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D33" t="n">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E33" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F33" t="n">
-        <v>186.6116</v>
+        <v>1238.2936</v>
       </c>
       <c r="G33" t="n">
-        <v>364.5</v>
+        <v>-3926.593699999993</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1659,7 +1705,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1670,22 +1720,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C34" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D34" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E34" t="n">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F34" t="n">
-        <v>102.6258</v>
+        <v>313.6396</v>
       </c>
       <c r="G34" t="n">
-        <v>364.5</v>
+        <v>-3926.593699999993</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1695,7 +1745,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1706,22 +1760,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C35" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D35" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E35" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="F35" t="n">
-        <v>127.314</v>
+        <v>926.4835</v>
       </c>
       <c r="G35" t="n">
-        <v>365</v>
+        <v>-3000.110199999993</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1731,7 +1785,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1742,22 +1800,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="C36" t="n">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D36" t="n">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E36" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F36" t="n">
-        <v>1.4</v>
+        <v>477.9282</v>
       </c>
       <c r="G36" t="n">
-        <v>365.5</v>
+        <v>-2522.181999999993</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1767,7 +1825,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1778,22 +1840,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="C37" t="n">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D37" t="n">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E37" t="n">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F37" t="n">
-        <v>574</v>
+        <v>19.9072</v>
       </c>
       <c r="G37" t="n">
-        <v>366.5</v>
+        <v>-2542.089199999993</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1803,7 +1865,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1814,22 +1880,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C38" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D38" t="n">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E38" t="n">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F38" t="n">
-        <v>1013.1998</v>
+        <v>31.4726</v>
       </c>
       <c r="G38" t="n">
-        <v>369.5</v>
+        <v>-2573.561799999993</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1839,7 +1905,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1850,22 +1920,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C39" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D39" t="n">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E39" t="n">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F39" t="n">
-        <v>187.0037</v>
+        <v>506.8697</v>
       </c>
       <c r="G39" t="n">
-        <v>368.5</v>
+        <v>-3080.431499999993</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1875,7 +1945,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1886,22 +1960,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C40" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D40" t="n">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E40" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F40" t="n">
-        <v>2094.1463</v>
+        <v>303.67</v>
       </c>
       <c r="G40" t="n">
-        <v>364</v>
+        <v>-3080.431499999993</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1911,7 +1985,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1922,22 +2000,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C41" t="n">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D41" t="n">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="E41" t="n">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="F41" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="G41" t="n">
-        <v>363</v>
+        <v>-3079.031499999993</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1947,7 +2025,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1958,22 +2040,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C42" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D42" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E42" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="F42" t="n">
-        <v>100</v>
+        <v>241.1759</v>
       </c>
       <c r="G42" t="n">
-        <v>363</v>
+        <v>-3320.207399999993</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1983,7 +2065,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1994,36 +2080,36 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C43" t="n">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="D43" t="n">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E43" t="n">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>317.0741</v>
       </c>
       <c r="G43" t="n">
-        <v>363</v>
+        <v>-3637.281499999993</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>363</v>
-      </c>
-      <c r="K43" t="n">
-        <v>363</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2034,38 +2120,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C44" t="n">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="D44" t="n">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E44" t="n">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="F44" t="n">
-        <v>1020.0862</v>
+        <v>333.8854</v>
       </c>
       <c r="G44" t="n">
-        <v>359</v>
+        <v>-3637.281499999993</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>363</v>
-      </c>
-      <c r="K44" t="n">
-        <v>363</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M44" t="n">
@@ -2078,22 +2160,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C45" t="n">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D45" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E45" t="n">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="F45" t="n">
-        <v>447.31</v>
+        <v>1029.5089</v>
       </c>
       <c r="G45" t="n">
-        <v>355</v>
+        <v>-4666.790399999993</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2102,9 +2184,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>363</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2120,35 +2200,31 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C46" t="n">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="D46" t="n">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E46" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F46" t="n">
-        <v>1253.3098</v>
+        <v>59.87</v>
       </c>
       <c r="G46" t="n">
-        <v>356.5</v>
+        <v>-4666.790399999993</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>355</v>
-      </c>
-      <c r="K46" t="n">
-        <v>363</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2164,35 +2240,31 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C47" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D47" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E47" t="n">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F47" t="n">
-        <v>1.4</v>
+        <v>340.8909</v>
       </c>
       <c r="G47" t="n">
-        <v>359.5</v>
+        <v>-4666.790399999993</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>358</v>
-      </c>
-      <c r="K47" t="n">
-        <v>363</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2208,35 +2280,31 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C48" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D48" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E48" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>121.3511</v>
       </c>
       <c r="G48" t="n">
-        <v>361</v>
+        <v>-4545.439299999994</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>361</v>
-      </c>
-      <c r="K48" t="n">
-        <v>363</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2252,35 +2320,31 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C49" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D49" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E49" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F49" t="n">
-        <v>121.2901</v>
+        <v>500</v>
       </c>
       <c r="G49" t="n">
-        <v>361</v>
+        <v>-4045.439299999994</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>361</v>
-      </c>
-      <c r="K49" t="n">
-        <v>363</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2296,35 +2360,31 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C50" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D50" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E50" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F50" t="n">
-        <v>5.3104</v>
+        <v>89.93040000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>361</v>
+        <v>-4045.439299999994</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>361</v>
-      </c>
-      <c r="K50" t="n">
-        <v>363</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2340,35 +2400,31 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="C51" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D51" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="E51" t="n">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>80.9374</v>
       </c>
       <c r="G51" t="n">
-        <v>361</v>
+        <v>-4045.439299999994</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>361</v>
-      </c>
-      <c r="K51" t="n">
-        <v>363</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2384,35 +2440,31 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="C52" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D52" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E52" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="F52" t="n">
-        <v>43.1268</v>
+        <v>375.0627</v>
       </c>
       <c r="G52" t="n">
-        <v>361</v>
+        <v>-4420.501999999994</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>361</v>
-      </c>
-      <c r="K52" t="n">
-        <v>363</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2428,35 +2480,31 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="C53" t="n">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="D53" t="n">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="E53" t="n">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F53" t="n">
-        <v>149.0402</v>
+        <v>305.802</v>
       </c>
       <c r="G53" t="n">
-        <v>361</v>
+        <v>-4114.699999999994</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>361</v>
-      </c>
-      <c r="K53" t="n">
-        <v>363</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2472,35 +2520,31 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C54" t="n">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="D54" t="n">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E54" t="n">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F54" t="n">
-        <v>150</v>
+        <v>2871.1191</v>
       </c>
       <c r="G54" t="n">
-        <v>362.5</v>
+        <v>-1243.580899999994</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>361</v>
-      </c>
-      <c r="K54" t="n">
-        <v>363</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2516,35 +2560,31 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="C55" t="n">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="D55" t="n">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="E55" t="n">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="F55" t="n">
-        <v>227.9</v>
+        <v>1319.8099</v>
       </c>
       <c r="G55" t="n">
-        <v>362.5</v>
+        <v>-2563.390799999995</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>364</v>
-      </c>
-      <c r="K55" t="n">
-        <v>363</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2560,35 +2600,31 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C56" t="n">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D56" t="n">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="E56" t="n">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="F56" t="n">
-        <v>440.4</v>
+        <v>5.0544</v>
       </c>
       <c r="G56" t="n">
-        <v>362.5</v>
+        <v>-2563.390799999995</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>361</v>
-      </c>
-      <c r="K56" t="n">
-        <v>363</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2604,35 +2640,31 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="C57" t="n">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D57" t="n">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="E57" t="n">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="F57" t="n">
-        <v>146.8</v>
+        <v>154.9709</v>
       </c>
       <c r="G57" t="n">
-        <v>364</v>
+        <v>-2718.361699999994</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>364</v>
-      </c>
-      <c r="K57" t="n">
-        <v>363</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2648,35 +2680,31 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C58" t="n">
+        <v>372</v>
+      </c>
+      <c r="D58" t="n">
+        <v>374</v>
+      </c>
+      <c r="E58" t="n">
         <v>371</v>
       </c>
-      <c r="D58" t="n">
-        <v>371</v>
-      </c>
-      <c r="E58" t="n">
-        <v>369</v>
-      </c>
       <c r="F58" t="n">
-        <v>102</v>
+        <v>449.6174</v>
       </c>
       <c r="G58" t="n">
-        <v>367.5</v>
+        <v>-3167.979099999995</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>364</v>
-      </c>
-      <c r="K58" t="n">
-        <v>363</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2692,22 +2720,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C59" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D59" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E59" t="n">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="F59" t="n">
-        <v>105</v>
+        <v>1.4</v>
       </c>
       <c r="G59" t="n">
-        <v>372</v>
+        <v>-3166.579099999994</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2716,9 +2744,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>363</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2734,22 +2760,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C60" t="n">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D60" t="n">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E60" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F60" t="n">
-        <v>535.3881</v>
+        <v>1174.5563</v>
       </c>
       <c r="G60" t="n">
-        <v>371</v>
+        <v>-4341.135399999995</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2758,9 +2784,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>363</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2776,22 +2800,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C61" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D61" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="E61" t="n">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F61" t="n">
-        <v>150</v>
+        <v>302.1956</v>
       </c>
       <c r="G61" t="n">
-        <v>368.5</v>
+        <v>-4643.330999999995</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2800,9 +2824,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>363</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2818,22 +2840,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C62" t="n">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D62" t="n">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E62" t="n">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F62" t="n">
-        <v>691.8373</v>
+        <v>534.4759</v>
       </c>
       <c r="G62" t="n">
-        <v>371.5</v>
+        <v>-5177.806899999995</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2842,9 +2864,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>363</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2860,22 +2880,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C63" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D63" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E63" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F63" t="n">
-        <v>957.3869999999999</v>
+        <v>107.5</v>
       </c>
       <c r="G63" t="n">
-        <v>375</v>
+        <v>-5070.306899999995</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2884,9 +2904,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>363</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2902,22 +2920,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C64" t="n">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D64" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E64" t="n">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F64" t="n">
-        <v>322.7076</v>
+        <v>4603.8761</v>
       </c>
       <c r="G64" t="n">
-        <v>372.5</v>
+        <v>-9674.182999999995</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2926,9 +2944,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>363</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2944,22 +2960,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C65" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D65" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E65" t="n">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F65" t="n">
-        <v>52.9103</v>
+        <v>181.7182</v>
       </c>
       <c r="G65" t="n">
-        <v>372.5</v>
+        <v>-9492.464799999996</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2968,9 +2984,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>363</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2986,22 +3000,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C66" t="n">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D66" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E66" t="n">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F66" t="n">
-        <v>4586.0369</v>
+        <v>11263.6935</v>
       </c>
       <c r="G66" t="n">
-        <v>375</v>
+        <v>1771.228700000003</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3010,9 +3024,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>363</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,22 +3040,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C67" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D67" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E67" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F67" t="n">
-        <v>626.4732</v>
+        <v>22.3</v>
       </c>
       <c r="G67" t="n">
-        <v>372.5</v>
+        <v>1748.928700000003</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3052,9 +3064,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>363</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3070,22 +3080,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C68" t="n">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="D68" t="n">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E68" t="n">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F68" t="n">
-        <v>180.2731</v>
+        <v>5080.3853</v>
       </c>
       <c r="G68" t="n">
-        <v>373</v>
+        <v>-3331.456599999997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3094,9 +3104,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>363</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,22 +3120,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C69" t="n">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D69" t="n">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E69" t="n">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F69" t="n">
-        <v>11196.0083</v>
+        <v>12.9169</v>
       </c>
       <c r="G69" t="n">
-        <v>377.5</v>
+        <v>-3318.539699999997</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3136,9 +3144,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>363</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3154,22 +3160,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C70" t="n">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D70" t="n">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E70" t="n">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="F70" t="n">
-        <v>84.17570000000001</v>
+        <v>3244.6021</v>
       </c>
       <c r="G70" t="n">
-        <v>379.5</v>
+        <v>-6563.141799999997</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3178,9 +3184,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>363</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3196,22 +3200,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C71" t="n">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D71" t="n">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="E71" t="n">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F71" t="n">
-        <v>934.2442</v>
+        <v>295.7483</v>
       </c>
       <c r="G71" t="n">
-        <v>381.5</v>
+        <v>-6267.393499999996</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3220,9 +3224,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>363</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3238,22 +3240,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C72" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D72" t="n">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="E72" t="n">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="F72" t="n">
-        <v>8947.189</v>
+        <v>5372.8708</v>
       </c>
       <c r="G72" t="n">
-        <v>383.5</v>
+        <v>-894.5226999999968</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3262,9 +3264,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>363</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,22 +3280,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="C73" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D73" t="n">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="E73" t="n">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F73" t="n">
-        <v>792.1287</v>
+        <v>119.9999</v>
       </c>
       <c r="G73" t="n">
-        <v>385.5</v>
+        <v>-1014.522599999997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3304,9 +3304,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>363</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3322,22 +3320,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="C74" t="n">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="D74" t="n">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="E74" t="n">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F74" t="n">
-        <v>173.9459</v>
+        <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>387</v>
+        <v>-1114.522599999997</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3346,9 +3344,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>363</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3364,22 +3360,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C75" t="n">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="D75" t="n">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E75" t="n">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="F75" t="n">
-        <v>134.1511</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>387</v>
+        <v>-1014.522599999997</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3388,9 +3384,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>363</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,22 +3400,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C76" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D76" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E76" t="n">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F76" t="n">
-        <v>666.7572</v>
+        <v>7.8538</v>
       </c>
       <c r="G76" t="n">
-        <v>386</v>
+        <v>-1014.522599999997</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3430,9 +3424,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>363</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,22 +3440,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C77" t="n">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="D77" t="n">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E77" t="n">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F77" t="n">
-        <v>600.9299999999999</v>
+        <v>238</v>
       </c>
       <c r="G77" t="n">
-        <v>386</v>
+        <v>-1014.522599999997</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3472,9 +3464,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>363</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3490,22 +3480,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C78" t="n">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D78" t="n">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="E78" t="n">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F78" t="n">
-        <v>853.3</v>
+        <v>247.6746</v>
       </c>
       <c r="G78" t="n">
-        <v>384.5</v>
+        <v>-1014.522599999997</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3514,9 +3504,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>363</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3532,22 +3520,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C79" t="n">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D79" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="E79" t="n">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F79" t="n">
-        <v>595.0457</v>
+        <v>2155.2227</v>
       </c>
       <c r="G79" t="n">
-        <v>380.5</v>
+        <v>-3169.745299999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3556,9 +3544,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>363</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,22 +3560,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C80" t="n">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D80" t="n">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="E80" t="n">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F80" t="n">
-        <v>1089</v>
+        <v>273.1638</v>
       </c>
       <c r="G80" t="n">
-        <v>381.5</v>
+        <v>-3442.909099999997</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3598,9 +3584,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>363</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3616,22 +3600,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C81" t="n">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="D81" t="n">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="E81" t="n">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="F81" t="n">
-        <v>48.03367875</v>
+        <v>113.8182</v>
       </c>
       <c r="G81" t="n">
-        <v>385</v>
+        <v>-3442.909099999997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3640,9 +3624,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>363</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3658,22 +3640,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C82" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D82" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E82" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="F82" t="n">
-        <v>142.4478</v>
+        <v>100.2325</v>
       </c>
       <c r="G82" t="n">
-        <v>385.5</v>
+        <v>-3342.676599999997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3682,9 +3664,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>363</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3700,22 +3680,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="C83" t="n">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D83" t="n">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E83" t="n">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="F83" t="n">
-        <v>2356.6228</v>
+        <v>116.7347</v>
       </c>
       <c r="G83" t="n">
-        <v>385</v>
+        <v>-3459.411299999997</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3724,9 +3704,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>363</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3742,22 +3720,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="C84" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D84" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E84" t="n">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="F84" t="n">
-        <v>2262.5993</v>
+        <v>934</v>
       </c>
       <c r="G84" t="n">
-        <v>385</v>
+        <v>-2525.411299999997</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3766,9 +3744,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>363</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,22 +3760,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C85" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D85" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="E85" t="n">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F85" t="n">
-        <v>841.7035</v>
+        <v>743.8982999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>385</v>
+        <v>-1781.512999999997</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3808,9 +3784,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>363</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3826,76 +3800,76 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C86" t="n">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="D86" t="n">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="E86" t="n">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="F86" t="n">
-        <v>1421</v>
+        <v>20</v>
       </c>
       <c r="G86" t="n">
-        <v>385.5</v>
+        <v>-1761.512999999997</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>363</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1.0583608815427</v>
-      </c>
-      <c r="N86" t="n">
-        <v>1.030386740331492</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C87" t="n">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="D87" t="n">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E87" t="n">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F87" t="n">
-        <v>341.4549</v>
+        <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>385</v>
+        <v>-1771.512999999997</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3906,32 +3880,36 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="C88" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D88" t="n">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="E88" t="n">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="F88" t="n">
-        <v>1457.0146</v>
+        <v>918</v>
       </c>
       <c r="G88" t="n">
-        <v>384.5</v>
+        <v>-1771.512999999997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3942,32 +3920,36 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C89" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D89" t="n">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="E89" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F89" t="n">
-        <v>615</v>
+        <v>2996.4926</v>
       </c>
       <c r="G89" t="n">
-        <v>384.5</v>
+        <v>-4768.005599999997</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3978,22 +3960,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C90" t="n">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D90" t="n">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="E90" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F90" t="n">
-        <v>663</v>
+        <v>635.58</v>
       </c>
       <c r="G90" t="n">
-        <v>384.5</v>
+        <v>-4768.005599999997</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4003,7 +3985,11 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4014,22 +4000,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="C91" t="n">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D91" t="n">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E91" t="n">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="F91" t="n">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G91" t="n">
-        <v>385.5</v>
+        <v>-4768.005599999997</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4039,7 +4025,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4050,22 +4040,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C92" t="n">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="D92" t="n">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E92" t="n">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="F92" t="n">
-        <v>1036</v>
+        <v>18</v>
       </c>
       <c r="G92" t="n">
-        <v>386</v>
+        <v>-4768.005599999997</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4075,7 +4065,11 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4086,32 +4080,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="C93" t="n">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D93" t="n">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="E93" t="n">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F93" t="n">
-        <v>154</v>
+        <v>232.9051</v>
       </c>
       <c r="G93" t="n">
-        <v>385.5</v>
+        <v>-5000.910699999997</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4122,32 +4120,36 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C94" t="n">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="D94" t="n">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="E94" t="n">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="F94" t="n">
-        <v>878</v>
+        <v>1892.0322</v>
       </c>
       <c r="G94" t="n">
-        <v>385</v>
+        <v>-6892.942899999996</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4158,32 +4160,36 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C95" t="n">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D95" t="n">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="E95" t="n">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="F95" t="n">
-        <v>824.5925</v>
+        <v>16</v>
       </c>
       <c r="G95" t="n">
-        <v>383.5</v>
+        <v>-6908.942899999996</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4194,32 +4200,36 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C96" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D96" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E96" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F96" t="n">
-        <v>1465.365</v>
+        <v>2813.4766</v>
       </c>
       <c r="G96" t="n">
-        <v>382</v>
+        <v>-4095.466299999996</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4230,32 +4240,36 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C97" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D97" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E97" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F97" t="n">
-        <v>894.7728</v>
+        <v>33</v>
       </c>
       <c r="G97" t="n">
-        <v>382</v>
+        <v>-4095.466299999996</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4266,32 +4280,36 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C98" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D98" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E98" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F98" t="n">
-        <v>1957.9006</v>
+        <v>490.8075</v>
       </c>
       <c r="G98" t="n">
-        <v>382</v>
+        <v>-4095.466299999996</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4302,32 +4320,36 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C99" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D99" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E99" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F99" t="n">
-        <v>358.26</v>
+        <v>780</v>
       </c>
       <c r="G99" t="n">
-        <v>382</v>
+        <v>-4095.466299999996</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4338,32 +4360,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C100" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D100" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E100" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F100" t="n">
-        <v>1488.5948</v>
+        <v>530</v>
       </c>
       <c r="G100" t="n">
-        <v>381.5</v>
+        <v>-4095.466299999996</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4374,32 +4400,36 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="C101" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="D101" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E101" t="n">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F101" t="n">
-        <v>583.9158</v>
+        <v>260</v>
       </c>
       <c r="G101" t="n">
-        <v>381.5</v>
+        <v>-4095.466299999996</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4410,32 +4440,36 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="C102" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D102" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E102" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="F102" t="n">
-        <v>270.5068</v>
+        <v>624</v>
       </c>
       <c r="G102" t="n">
-        <v>382.5</v>
+        <v>-4095.466299999996</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4446,32 +4480,36 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C103" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D103" t="n">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="E103" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F103" t="n">
-        <v>163.0123</v>
+        <v>102.5151</v>
       </c>
       <c r="G103" t="n">
-        <v>383</v>
+        <v>-4095.466299999996</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4482,32 +4520,36 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C104" t="n">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D104" t="n">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="E104" t="n">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F104" t="n">
-        <v>43.5082</v>
+        <v>186.6116</v>
       </c>
       <c r="G104" t="n">
-        <v>382.5</v>
+        <v>-4282.077899999997</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4518,32 +4560,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C105" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D105" t="n">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="E105" t="n">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F105" t="n">
-        <v>6500.4252</v>
+        <v>102.6258</v>
       </c>
       <c r="G105" t="n">
-        <v>381.5</v>
+        <v>-4179.452099999997</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4554,32 +4600,36 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C106" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D106" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E106" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F106" t="n">
-        <v>946.6461</v>
+        <v>127.314</v>
       </c>
       <c r="G106" t="n">
-        <v>381</v>
+        <v>-4179.452099999997</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4590,32 +4640,36 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="C107" t="n">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="D107" t="n">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E107" t="n">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F107" t="n">
-        <v>3671.4402</v>
+        <v>1.4</v>
       </c>
       <c r="G107" t="n">
-        <v>380.5</v>
+        <v>-4178.052099999997</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4626,32 +4680,36 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C108" t="n">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="D108" t="n">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E108" t="n">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="F108" t="n">
-        <v>2185.694</v>
+        <v>574</v>
       </c>
       <c r="G108" t="n">
-        <v>380</v>
+        <v>-3604.052099999997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4662,32 +4720,36 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C109" t="n">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D109" t="n">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E109" t="n">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="F109" t="n">
-        <v>700.6754</v>
+        <v>1013.1998</v>
       </c>
       <c r="G109" t="n">
-        <v>380.5</v>
+        <v>-2590.852299999997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4698,32 +4760,36 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C110" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="D110" t="n">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E110" t="n">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="F110" t="n">
-        <v>49</v>
+        <v>187.0037</v>
       </c>
       <c r="G110" t="n">
-        <v>381</v>
+        <v>-2777.855999999997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4734,32 +4800,36 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="C111" t="n">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D111" t="n">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="E111" t="n">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="F111" t="n">
-        <v>118</v>
+        <v>2094.1463</v>
       </c>
       <c r="G111" t="n">
-        <v>381</v>
+        <v>-4872.002299999997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4770,32 +4840,36 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="C112" t="n">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D112" t="n">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E112" t="n">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="F112" t="n">
-        <v>100</v>
+        <v>6.4</v>
       </c>
       <c r="G112" t="n">
-        <v>381</v>
+        <v>-4872.002299999997</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4806,32 +4880,36 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C113" t="n">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D113" t="n">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E113" t="n">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F113" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>381</v>
+        <v>-4872.002299999997</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4842,32 +4920,36 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="C114" t="n">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="D114" t="n">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E114" t="n">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="F114" t="n">
-        <v>2032.3401</v>
+        <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>381.5</v>
+        <v>-4872.002299999997</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4878,32 +4960,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="C115" t="n">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="D115" t="n">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="E115" t="n">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="F115" t="n">
-        <v>12.12</v>
+        <v>1020.0862</v>
       </c>
       <c r="G115" t="n">
-        <v>382</v>
+        <v>-5892.088499999997</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4914,32 +5000,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="C116" t="n">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="D116" t="n">
-        <v>381</v>
+        <v>356</v>
       </c>
       <c r="E116" t="n">
-        <v>380</v>
+        <v>355</v>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>447.31</v>
       </c>
       <c r="G116" t="n">
-        <v>381</v>
+        <v>-5892.088499999997</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4950,32 +5040,36 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="C117" t="n">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="D117" t="n">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="E117" t="n">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="F117" t="n">
-        <v>5865.8242</v>
+        <v>1253.3098</v>
       </c>
       <c r="G117" t="n">
-        <v>379</v>
+        <v>-4638.778699999997</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4986,32 +5080,36 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C118" t="n">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D118" t="n">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="E118" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="F118" t="n">
-        <v>1928.2604</v>
+        <v>1.4</v>
       </c>
       <c r="G118" t="n">
-        <v>378.5</v>
+        <v>-4637.378699999997</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5022,32 +5120,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C119" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D119" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E119" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F119" t="n">
-        <v>279.9075</v>
+        <v>50</v>
       </c>
       <c r="G119" t="n">
-        <v>378</v>
+        <v>-4637.378699999997</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5058,32 +5160,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C120" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D120" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E120" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F120" t="n">
-        <v>2497.2409</v>
+        <v>121.2901</v>
       </c>
       <c r="G120" t="n">
-        <v>377.5</v>
+        <v>-4637.378699999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5094,32 +5200,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C121" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D121" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E121" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F121" t="n">
-        <v>84.1491</v>
+        <v>5.3104</v>
       </c>
       <c r="G121" t="n">
-        <v>377.5</v>
+        <v>-4637.378699999997</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>361</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5130,32 +5242,36 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C122" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D122" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="E122" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F122" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G122" t="n">
-        <v>377.5</v>
+        <v>-4637.378699999997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5166,22 +5282,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C123" t="n">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D123" t="n">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="E123" t="n">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="F123" t="n">
-        <v>123.6452</v>
+        <v>43.1268</v>
       </c>
       <c r="G123" t="n">
-        <v>378.5</v>
+        <v>-4637.378699999997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5191,7 +5307,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5202,32 +5322,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C124" t="n">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D124" t="n">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="E124" t="n">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="F124" t="n">
-        <v>305</v>
+        <v>149.0402</v>
       </c>
       <c r="G124" t="n">
-        <v>379</v>
+        <v>-4637.378699999997</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>361</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5238,32 +5364,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C125" t="n">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="D125" t="n">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="E125" t="n">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="F125" t="n">
-        <v>436.0673</v>
+        <v>150</v>
       </c>
       <c r="G125" t="n">
-        <v>378</v>
+        <v>-4487.378699999997</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>361</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5274,22 +5406,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="C126" t="n">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="D126" t="n">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="E126" t="n">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="F126" t="n">
-        <v>1321.0532</v>
+        <v>227.9</v>
       </c>
       <c r="G126" t="n">
-        <v>378</v>
+        <v>-4715.278699999997</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5299,7 +5431,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5310,22 +5446,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C127" t="n">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="D127" t="n">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E127" t="n">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F127" t="n">
-        <v>718</v>
+        <v>440.4</v>
       </c>
       <c r="G127" t="n">
-        <v>379</v>
+        <v>-4274.878699999997</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5335,7 +5471,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5346,22 +5486,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="C128" t="n">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="D128" t="n">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E128" t="n">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F128" t="n">
-        <v>615.838</v>
+        <v>146.8</v>
       </c>
       <c r="G128" t="n">
-        <v>378.5</v>
+        <v>-4274.878699999997</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5371,7 +5511,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5382,22 +5526,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C129" t="n">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="D129" t="n">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E129" t="n">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="F129" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G129" t="n">
-        <v>378</v>
+        <v>-4172.878699999997</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5407,7 +5551,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5418,22 +5566,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C130" t="n">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D130" t="n">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E130" t="n">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F130" t="n">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="G130" t="n">
-        <v>377.5</v>
+        <v>-4067.878699999997</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5443,7 +5591,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5454,22 +5606,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C131" t="n">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D131" t="n">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="E131" t="n">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F131" t="n">
-        <v>668</v>
+        <v>535.3881</v>
       </c>
       <c r="G131" t="n">
-        <v>378</v>
+        <v>-4603.266799999998</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5479,7 +5631,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5490,22 +5646,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="C132" t="n">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D132" t="n">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="E132" t="n">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="F132" t="n">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="G132" t="n">
-        <v>379</v>
+        <v>-4753.266799999998</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5515,7 +5671,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5526,22 +5686,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C133" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D133" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E133" t="n">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>691.8373</v>
       </c>
       <c r="G133" t="n">
-        <v>378.5</v>
+        <v>-4061.429499999997</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5551,7 +5711,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5562,22 +5726,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C134" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D134" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E134" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F134" t="n">
-        <v>48.0337</v>
+        <v>957.3869999999999</v>
       </c>
       <c r="G134" t="n">
-        <v>377</v>
+        <v>-4061.429499999997</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5587,7 +5751,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5598,22 +5766,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C135" t="n">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D135" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E135" t="n">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F135" t="n">
-        <v>137.767</v>
+        <v>322.7076</v>
       </c>
       <c r="G135" t="n">
-        <v>377.5</v>
+        <v>-4384.137099999997</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5623,7 +5791,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5634,22 +5806,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C136" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D136" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E136" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F136" t="n">
-        <v>212.233</v>
+        <v>52.9103</v>
       </c>
       <c r="G136" t="n">
-        <v>379</v>
+        <v>-4331.226799999998</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5659,7 +5831,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5670,22 +5846,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C137" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D137" t="n">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E137" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F137" t="n">
-        <v>1345.4401</v>
+        <v>4586.0369</v>
       </c>
       <c r="G137" t="n">
-        <v>378.5</v>
+        <v>-4331.226799999998</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5695,7 +5871,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5706,22 +5886,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C138" t="n">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D138" t="n">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E138" t="n">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F138" t="n">
-        <v>342</v>
+        <v>626.4732</v>
       </c>
       <c r="G138" t="n">
-        <v>378.5</v>
+        <v>-4957.699999999998</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5731,7 +5911,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5742,22 +5926,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C139" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D139" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E139" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F139" t="n">
-        <v>62</v>
+        <v>180.2731</v>
       </c>
       <c r="G139" t="n">
-        <v>378.5</v>
+        <v>-4777.426899999998</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5767,7 +5951,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5778,22 +5966,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C140" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D140" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E140" t="n">
         <v>377</v>
       </c>
       <c r="F140" t="n">
-        <v>577</v>
+        <v>11196.0083</v>
       </c>
       <c r="G140" t="n">
-        <v>379</v>
+        <v>6418.581400000002</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5803,7 +5991,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5814,22 +6006,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C141" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D141" t="n">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E141" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F141" t="n">
-        <v>1059.4647</v>
+        <v>84.17570000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>379</v>
+        <v>6502.757100000002</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5839,7 +6031,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5850,22 +6046,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C142" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D142" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="E142" t="n">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F142" t="n">
-        <v>299</v>
+        <v>934.2442</v>
       </c>
       <c r="G142" t="n">
-        <v>379</v>
+        <v>7437.001300000002</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5875,7 +6071,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5886,22 +6086,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C143" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D143" t="n">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="E143" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F143" t="n">
-        <v>164.2674</v>
+        <v>8947.189</v>
       </c>
       <c r="G143" t="n">
-        <v>380</v>
+        <v>16384.1903</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5911,7 +6111,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5922,22 +6126,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C144" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D144" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E144" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F144" t="n">
-        <v>876.7912</v>
+        <v>792.1287</v>
       </c>
       <c r="G144" t="n">
-        <v>380.5</v>
+        <v>17176.319</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5947,7 +6151,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5958,22 +6166,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C145" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D145" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E145" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F145" t="n">
-        <v>207.6572</v>
+        <v>173.9459</v>
       </c>
       <c r="G145" t="n">
-        <v>380.5</v>
+        <v>17176.319</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5983,7 +6191,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5994,22 +6206,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C146" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="D146" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="E146" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F146" t="n">
-        <v>587.4453</v>
+        <v>134.1511</v>
       </c>
       <c r="G146" t="n">
-        <v>380</v>
+        <v>17176.319</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6019,7 +6231,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6030,22 +6246,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C147" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D147" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E147" t="n">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F147" t="n">
-        <v>2190.3042</v>
+        <v>666.7572</v>
       </c>
       <c r="G147" t="n">
-        <v>380</v>
+        <v>16509.5618</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6055,7 +6271,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6066,22 +6286,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C148" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="D148" t="n">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="E148" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F148" t="n">
-        <v>243.2109</v>
+        <v>600.9299999999999</v>
       </c>
       <c r="G148" t="n">
-        <v>379.5</v>
+        <v>17110.4918</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6091,7 +6311,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6102,22 +6326,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C149" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="D149" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E149" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F149" t="n">
-        <v>567.4383</v>
+        <v>853.3</v>
       </c>
       <c r="G149" t="n">
-        <v>379</v>
+        <v>16257.1918</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6127,7 +6351,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6138,22 +6366,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C150" t="n">
         <v>379</v>
       </c>
       <c r="D150" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E150" t="n">
         <v>379</v>
       </c>
       <c r="F150" t="n">
-        <v>414.0768</v>
+        <v>595.0457</v>
       </c>
       <c r="G150" t="n">
-        <v>379</v>
+        <v>15662.1461</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6163,7 +6391,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6174,22 +6406,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C151" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D151" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E151" t="n">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F151" t="n">
-        <v>169.905</v>
+        <v>1089</v>
       </c>
       <c r="G151" t="n">
-        <v>379</v>
+        <v>16751.14610000001</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6199,7 +6431,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6210,22 +6446,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C152" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D152" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E152" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F152" t="n">
-        <v>184.711</v>
+        <v>48.03367875</v>
       </c>
       <c r="G152" t="n">
-        <v>379</v>
+        <v>16799.17977875</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6235,7 +6471,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6246,22 +6486,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C153" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D153" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E153" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="F153" t="n">
-        <v>689.748</v>
+        <v>142.4478</v>
       </c>
       <c r="G153" t="n">
-        <v>379</v>
+        <v>16656.73197875</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6271,7 +6511,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6282,22 +6526,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C154" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D154" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E154" t="n">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="F154" t="n">
-        <v>266.94</v>
+        <v>2356.6228</v>
       </c>
       <c r="G154" t="n">
-        <v>379</v>
+        <v>16656.73197875</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6307,7 +6551,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6318,22 +6566,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C155" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D155" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E155" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F155" t="n">
-        <v>5.9077</v>
+        <v>2262.5993</v>
       </c>
       <c r="G155" t="n">
-        <v>378.5</v>
+        <v>16656.73197875</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6343,7 +6591,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6354,22 +6606,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C156" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D156" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E156" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F156" t="n">
-        <v>200</v>
+        <v>841.7035</v>
       </c>
       <c r="G156" t="n">
-        <v>378</v>
+        <v>16656.73197875</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6379,7 +6631,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6390,22 +6646,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C157" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="D157" t="n">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="E157" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F157" t="n">
-        <v>100</v>
+        <v>1421</v>
       </c>
       <c r="G157" t="n">
-        <v>378</v>
+        <v>18077.73197875</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6415,7 +6671,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6426,22 +6686,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C158" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D158" t="n">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E158" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F158" t="n">
-        <v>2393.6329</v>
+        <v>341.4549</v>
       </c>
       <c r="G158" t="n">
-        <v>379</v>
+        <v>17736.27707875</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6451,7 +6711,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6462,22 +6726,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="C159" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D159" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E159" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="F159" t="n">
-        <v>192.9107</v>
+        <v>1457.0146</v>
       </c>
       <c r="G159" t="n">
-        <v>379</v>
+        <v>19193.29167875</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6487,7 +6751,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6498,22 +6766,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C160" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D160" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E160" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F160" t="n">
-        <v>1603.5705</v>
+        <v>615</v>
       </c>
       <c r="G160" t="n">
-        <v>377.5</v>
+        <v>18578.29167875</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6523,7 +6791,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6534,35 +6806,37 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C161" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D161" t="n">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E161" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F161" t="n">
-        <v>98.45529999999999</v>
+        <v>663</v>
       </c>
       <c r="G161" t="n">
-        <v>378</v>
+        <v>19241.29167875</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
@@ -6570,28 +6844,28 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="C162" t="n">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D162" t="n">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E162" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F162" t="n">
-        <v>131.57894736</v>
+        <v>134</v>
       </c>
       <c r="G162" t="n">
-        <v>379.5</v>
+        <v>19375.29167875</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -6606,28 +6880,28 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C163" t="n">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D163" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="E163" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="F163" t="n">
-        <v>2683.5097</v>
+        <v>1036</v>
       </c>
       <c r="G163" t="n">
-        <v>378.5</v>
+        <v>19375.29167875</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -6642,28 +6916,28 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C164" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D164" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E164" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="F164" t="n">
-        <v>3411.3151</v>
+        <v>154</v>
       </c>
       <c r="G164" t="n">
-        <v>376.5</v>
+        <v>19221.29167875</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
@@ -6678,28 +6952,28 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C165" t="n">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D165" t="n">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E165" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="F165" t="n">
-        <v>992.37</v>
+        <v>878</v>
       </c>
       <c r="G165" t="n">
-        <v>376</v>
+        <v>19221.29167875</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
@@ -6714,28 +6988,28 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C166" t="n">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="D166" t="n">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="E166" t="n">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="F166" t="n">
-        <v>353</v>
+        <v>824.5925</v>
       </c>
       <c r="G166" t="n">
-        <v>372.5</v>
+        <v>18396.69917875</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
@@ -6750,28 +7024,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C167" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D167" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E167" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F167" t="n">
-        <v>1.33</v>
+        <v>1465.365</v>
       </c>
       <c r="G167" t="n">
-        <v>373</v>
+        <v>18396.69917875</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6786,28 +7060,28 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C168" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="D168" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="E168" t="n">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F168" t="n">
-        <v>3.6076</v>
+        <v>894.7728</v>
       </c>
       <c r="G168" t="n">
-        <v>377</v>
+        <v>18396.69917875</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
@@ -6817,6 +7091,2562 @@
       </c>
       <c r="N168" t="inlineStr"/>
     </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>382</v>
+      </c>
+      <c r="C169" t="n">
+        <v>382</v>
+      </c>
+      <c r="D169" t="n">
+        <v>382</v>
+      </c>
+      <c r="E169" t="n">
+        <v>382</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1957.9006</v>
+      </c>
+      <c r="G169" t="n">
+        <v>18396.69917875</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>382</v>
+      </c>
+      <c r="C170" t="n">
+        <v>382</v>
+      </c>
+      <c r="D170" t="n">
+        <v>382</v>
+      </c>
+      <c r="E170" t="n">
+        <v>382</v>
+      </c>
+      <c r="F170" t="n">
+        <v>358.26</v>
+      </c>
+      <c r="G170" t="n">
+        <v>18396.69917875</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>381</v>
+      </c>
+      <c r="C171" t="n">
+        <v>381</v>
+      </c>
+      <c r="D171" t="n">
+        <v>381</v>
+      </c>
+      <c r="E171" t="n">
+        <v>381</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1488.5948</v>
+      </c>
+      <c r="G171" t="n">
+        <v>16908.10437875</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>379</v>
+      </c>
+      <c r="C172" t="n">
+        <v>382</v>
+      </c>
+      <c r="D172" t="n">
+        <v>382</v>
+      </c>
+      <c r="E172" t="n">
+        <v>379</v>
+      </c>
+      <c r="F172" t="n">
+        <v>583.9158</v>
+      </c>
+      <c r="G172" t="n">
+        <v>17492.02017875</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>382</v>
+      </c>
+      <c r="C173" t="n">
+        <v>383</v>
+      </c>
+      <c r="D173" t="n">
+        <v>383</v>
+      </c>
+      <c r="E173" t="n">
+        <v>382</v>
+      </c>
+      <c r="F173" t="n">
+        <v>270.5068</v>
+      </c>
+      <c r="G173" t="n">
+        <v>17762.52697875</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>381</v>
+      </c>
+      <c r="C174" t="n">
+        <v>383</v>
+      </c>
+      <c r="D174" t="n">
+        <v>383</v>
+      </c>
+      <c r="E174" t="n">
+        <v>381</v>
+      </c>
+      <c r="F174" t="n">
+        <v>163.0123</v>
+      </c>
+      <c r="G174" t="n">
+        <v>17762.52697875</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>382</v>
+      </c>
+      <c r="C175" t="n">
+        <v>382</v>
+      </c>
+      <c r="D175" t="n">
+        <v>382</v>
+      </c>
+      <c r="E175" t="n">
+        <v>382</v>
+      </c>
+      <c r="F175" t="n">
+        <v>43.5082</v>
+      </c>
+      <c r="G175" t="n">
+        <v>17719.01877875</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>381</v>
+      </c>
+      <c r="C176" t="n">
+        <v>381</v>
+      </c>
+      <c r="D176" t="n">
+        <v>382</v>
+      </c>
+      <c r="E176" t="n">
+        <v>380</v>
+      </c>
+      <c r="F176" t="n">
+        <v>6500.4252</v>
+      </c>
+      <c r="G176" t="n">
+        <v>11218.59357875</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>381</v>
+      </c>
+      <c r="C177" t="n">
+        <v>381</v>
+      </c>
+      <c r="D177" t="n">
+        <v>381</v>
+      </c>
+      <c r="E177" t="n">
+        <v>381</v>
+      </c>
+      <c r="F177" t="n">
+        <v>946.6461</v>
+      </c>
+      <c r="G177" t="n">
+        <v>11218.59357875</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>381</v>
+      </c>
+      <c r="C178" t="n">
+        <v>380</v>
+      </c>
+      <c r="D178" t="n">
+        <v>381</v>
+      </c>
+      <c r="E178" t="n">
+        <v>380</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3671.4402</v>
+      </c>
+      <c r="G178" t="n">
+        <v>7547.15337875</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>380</v>
+      </c>
+      <c r="C179" t="n">
+        <v>380</v>
+      </c>
+      <c r="D179" t="n">
+        <v>380</v>
+      </c>
+      <c r="E179" t="n">
+        <v>380</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2185.694</v>
+      </c>
+      <c r="G179" t="n">
+        <v>7547.15337875</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>381</v>
+      </c>
+      <c r="C180" t="n">
+        <v>381</v>
+      </c>
+      <c r="D180" t="n">
+        <v>381</v>
+      </c>
+      <c r="E180" t="n">
+        <v>381</v>
+      </c>
+      <c r="F180" t="n">
+        <v>700.6754</v>
+      </c>
+      <c r="G180" t="n">
+        <v>8247.828778749999</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>381</v>
+      </c>
+      <c r="C181" t="n">
+        <v>381</v>
+      </c>
+      <c r="D181" t="n">
+        <v>381</v>
+      </c>
+      <c r="E181" t="n">
+        <v>381</v>
+      </c>
+      <c r="F181" t="n">
+        <v>49</v>
+      </c>
+      <c r="G181" t="n">
+        <v>8247.828778749999</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>381</v>
+      </c>
+      <c r="C182" t="n">
+        <v>381</v>
+      </c>
+      <c r="D182" t="n">
+        <v>381</v>
+      </c>
+      <c r="E182" t="n">
+        <v>381</v>
+      </c>
+      <c r="F182" t="n">
+        <v>118</v>
+      </c>
+      <c r="G182" t="n">
+        <v>8247.828778749999</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>381</v>
+      </c>
+      <c r="C183" t="n">
+        <v>381</v>
+      </c>
+      <c r="D183" t="n">
+        <v>381</v>
+      </c>
+      <c r="E183" t="n">
+        <v>381</v>
+      </c>
+      <c r="F183" t="n">
+        <v>100</v>
+      </c>
+      <c r="G183" t="n">
+        <v>8247.828778749999</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>381</v>
+      </c>
+      <c r="C184" t="n">
+        <v>381</v>
+      </c>
+      <c r="D184" t="n">
+        <v>381</v>
+      </c>
+      <c r="E184" t="n">
+        <v>381</v>
+      </c>
+      <c r="F184" t="n">
+        <v>150</v>
+      </c>
+      <c r="G184" t="n">
+        <v>8247.828778749999</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>382</v>
+      </c>
+      <c r="C185" t="n">
+        <v>382</v>
+      </c>
+      <c r="D185" t="n">
+        <v>382</v>
+      </c>
+      <c r="E185" t="n">
+        <v>382</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2032.3401</v>
+      </c>
+      <c r="G185" t="n">
+        <v>10280.16887875</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>382</v>
+      </c>
+      <c r="C186" t="n">
+        <v>382</v>
+      </c>
+      <c r="D186" t="n">
+        <v>382</v>
+      </c>
+      <c r="E186" t="n">
+        <v>382</v>
+      </c>
+      <c r="F186" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="G186" t="n">
+        <v>10280.16887875</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>381</v>
+      </c>
+      <c r="C187" t="n">
+        <v>380</v>
+      </c>
+      <c r="D187" t="n">
+        <v>381</v>
+      </c>
+      <c r="E187" t="n">
+        <v>380</v>
+      </c>
+      <c r="F187" t="n">
+        <v>100</v>
+      </c>
+      <c r="G187" t="n">
+        <v>10180.16887875</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>380</v>
+      </c>
+      <c r="C188" t="n">
+        <v>378</v>
+      </c>
+      <c r="D188" t="n">
+        <v>380</v>
+      </c>
+      <c r="E188" t="n">
+        <v>378</v>
+      </c>
+      <c r="F188" t="n">
+        <v>5865.8242</v>
+      </c>
+      <c r="G188" t="n">
+        <v>4314.344678749999</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>378</v>
+      </c>
+      <c r="C189" t="n">
+        <v>379</v>
+      </c>
+      <c r="D189" t="n">
+        <v>379</v>
+      </c>
+      <c r="E189" t="n">
+        <v>378</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1928.2604</v>
+      </c>
+      <c r="G189" t="n">
+        <v>6242.605078749999</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>378</v>
+      </c>
+      <c r="C190" t="n">
+        <v>377</v>
+      </c>
+      <c r="D190" t="n">
+        <v>378</v>
+      </c>
+      <c r="E190" t="n">
+        <v>377</v>
+      </c>
+      <c r="F190" t="n">
+        <v>279.9075</v>
+      </c>
+      <c r="G190" t="n">
+        <v>5962.697578749999</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>377</v>
+      </c>
+      <c r="C191" t="n">
+        <v>378</v>
+      </c>
+      <c r="D191" t="n">
+        <v>378</v>
+      </c>
+      <c r="E191" t="n">
+        <v>377</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2497.2409</v>
+      </c>
+      <c r="G191" t="n">
+        <v>8459.938478749998</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>377</v>
+      </c>
+      <c r="C192" t="n">
+        <v>377</v>
+      </c>
+      <c r="D192" t="n">
+        <v>377</v>
+      </c>
+      <c r="E192" t="n">
+        <v>377</v>
+      </c>
+      <c r="F192" t="n">
+        <v>84.1491</v>
+      </c>
+      <c r="G192" t="n">
+        <v>8375.789378749998</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>377</v>
+      </c>
+      <c r="C193" t="n">
+        <v>378</v>
+      </c>
+      <c r="D193" t="n">
+        <v>378</v>
+      </c>
+      <c r="E193" t="n">
+        <v>377</v>
+      </c>
+      <c r="F193" t="n">
+        <v>25</v>
+      </c>
+      <c r="G193" t="n">
+        <v>8400.789378749998</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>378</v>
+      </c>
+      <c r="C194" t="n">
+        <v>379</v>
+      </c>
+      <c r="D194" t="n">
+        <v>379</v>
+      </c>
+      <c r="E194" t="n">
+        <v>378</v>
+      </c>
+      <c r="F194" t="n">
+        <v>123.6452</v>
+      </c>
+      <c r="G194" t="n">
+        <v>8524.434578749999</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>379</v>
+      </c>
+      <c r="C195" t="n">
+        <v>379</v>
+      </c>
+      <c r="D195" t="n">
+        <v>379</v>
+      </c>
+      <c r="E195" t="n">
+        <v>379</v>
+      </c>
+      <c r="F195" t="n">
+        <v>305</v>
+      </c>
+      <c r="G195" t="n">
+        <v>8524.434578749999</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>377</v>
+      </c>
+      <c r="C196" t="n">
+        <v>377</v>
+      </c>
+      <c r="D196" t="n">
+        <v>377</v>
+      </c>
+      <c r="E196" t="n">
+        <v>377</v>
+      </c>
+      <c r="F196" t="n">
+        <v>436.0673</v>
+      </c>
+      <c r="G196" t="n">
+        <v>8088.367278749999</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>377</v>
+      </c>
+      <c r="C197" t="n">
+        <v>379</v>
+      </c>
+      <c r="D197" t="n">
+        <v>379</v>
+      </c>
+      <c r="E197" t="n">
+        <v>377</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1321.0532</v>
+      </c>
+      <c r="G197" t="n">
+        <v>9409.420478749998</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>378</v>
+      </c>
+      <c r="C198" t="n">
+        <v>379</v>
+      </c>
+      <c r="D198" t="n">
+        <v>379</v>
+      </c>
+      <c r="E198" t="n">
+        <v>378</v>
+      </c>
+      <c r="F198" t="n">
+        <v>718</v>
+      </c>
+      <c r="G198" t="n">
+        <v>9409.420478749998</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>378</v>
+      </c>
+      <c r="C199" t="n">
+        <v>378</v>
+      </c>
+      <c r="D199" t="n">
+        <v>378</v>
+      </c>
+      <c r="E199" t="n">
+        <v>378</v>
+      </c>
+      <c r="F199" t="n">
+        <v>615.838</v>
+      </c>
+      <c r="G199" t="n">
+        <v>8793.582478749999</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>378</v>
+      </c>
+      <c r="C200" t="n">
+        <v>378</v>
+      </c>
+      <c r="D200" t="n">
+        <v>378</v>
+      </c>
+      <c r="E200" t="n">
+        <v>378</v>
+      </c>
+      <c r="F200" t="n">
+        <v>100</v>
+      </c>
+      <c r="G200" t="n">
+        <v>8793.582478749999</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>378</v>
+      </c>
+      <c r="C201" t="n">
+        <v>377</v>
+      </c>
+      <c r="D201" t="n">
+        <v>378</v>
+      </c>
+      <c r="E201" t="n">
+        <v>377</v>
+      </c>
+      <c r="F201" t="n">
+        <v>183</v>
+      </c>
+      <c r="G201" t="n">
+        <v>8610.582478749999</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>377</v>
+      </c>
+      <c r="C202" t="n">
+        <v>379</v>
+      </c>
+      <c r="D202" t="n">
+        <v>379</v>
+      </c>
+      <c r="E202" t="n">
+        <v>377</v>
+      </c>
+      <c r="F202" t="n">
+        <v>668</v>
+      </c>
+      <c r="G202" t="n">
+        <v>9278.582478749999</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>377</v>
+      </c>
+      <c r="C203" t="n">
+        <v>379</v>
+      </c>
+      <c r="D203" t="n">
+        <v>379</v>
+      </c>
+      <c r="E203" t="n">
+        <v>377</v>
+      </c>
+      <c r="F203" t="n">
+        <v>99</v>
+      </c>
+      <c r="G203" t="n">
+        <v>9278.582478749999</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>378</v>
+      </c>
+      <c r="C204" t="n">
+        <v>378</v>
+      </c>
+      <c r="D204" t="n">
+        <v>378</v>
+      </c>
+      <c r="E204" t="n">
+        <v>378</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10</v>
+      </c>
+      <c r="G204" t="n">
+        <v>9268.582478749999</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>376</v>
+      </c>
+      <c r="C205" t="n">
+        <v>376</v>
+      </c>
+      <c r="D205" t="n">
+        <v>376</v>
+      </c>
+      <c r="E205" t="n">
+        <v>376</v>
+      </c>
+      <c r="F205" t="n">
+        <v>48.0337</v>
+      </c>
+      <c r="G205" t="n">
+        <v>9220.548778749999</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>378</v>
+      </c>
+      <c r="C206" t="n">
+        <v>379</v>
+      </c>
+      <c r="D206" t="n">
+        <v>379</v>
+      </c>
+      <c r="E206" t="n">
+        <v>378</v>
+      </c>
+      <c r="F206" t="n">
+        <v>137.767</v>
+      </c>
+      <c r="G206" t="n">
+        <v>9358.315778749999</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>379</v>
+      </c>
+      <c r="C207" t="n">
+        <v>379</v>
+      </c>
+      <c r="D207" t="n">
+        <v>379</v>
+      </c>
+      <c r="E207" t="n">
+        <v>379</v>
+      </c>
+      <c r="F207" t="n">
+        <v>212.233</v>
+      </c>
+      <c r="G207" t="n">
+        <v>9358.315778749999</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>378</v>
+      </c>
+      <c r="C208" t="n">
+        <v>378</v>
+      </c>
+      <c r="D208" t="n">
+        <v>379</v>
+      </c>
+      <c r="E208" t="n">
+        <v>378</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1345.4401</v>
+      </c>
+      <c r="G208" t="n">
+        <v>8012.875678749999</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>378</v>
+      </c>
+      <c r="C209" t="n">
+        <v>379</v>
+      </c>
+      <c r="D209" t="n">
+        <v>379</v>
+      </c>
+      <c r="E209" t="n">
+        <v>378</v>
+      </c>
+      <c r="F209" t="n">
+        <v>342</v>
+      </c>
+      <c r="G209" t="n">
+        <v>8354.875678749999</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>378</v>
+      </c>
+      <c r="C210" t="n">
+        <v>378</v>
+      </c>
+      <c r="D210" t="n">
+        <v>378</v>
+      </c>
+      <c r="E210" t="n">
+        <v>378</v>
+      </c>
+      <c r="F210" t="n">
+        <v>62</v>
+      </c>
+      <c r="G210" t="n">
+        <v>8292.875678749999</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>378</v>
+      </c>
+      <c r="C211" t="n">
+        <v>380</v>
+      </c>
+      <c r="D211" t="n">
+        <v>380</v>
+      </c>
+      <c r="E211" t="n">
+        <v>377</v>
+      </c>
+      <c r="F211" t="n">
+        <v>577</v>
+      </c>
+      <c r="G211" t="n">
+        <v>8869.875678749999</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>378</v>
+      </c>
+      <c r="C212" t="n">
+        <v>378</v>
+      </c>
+      <c r="D212" t="n">
+        <v>378</v>
+      </c>
+      <c r="E212" t="n">
+        <v>378</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1059.4647</v>
+      </c>
+      <c r="G212" t="n">
+        <v>7810.410978749998</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>378</v>
+      </c>
+      <c r="C213" t="n">
+        <v>380</v>
+      </c>
+      <c r="D213" t="n">
+        <v>380</v>
+      </c>
+      <c r="E213" t="n">
+        <v>378</v>
+      </c>
+      <c r="F213" t="n">
+        <v>299</v>
+      </c>
+      <c r="G213" t="n">
+        <v>8109.410978749998</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>380</v>
+      </c>
+      <c r="C214" t="n">
+        <v>380</v>
+      </c>
+      <c r="D214" t="n">
+        <v>380</v>
+      </c>
+      <c r="E214" t="n">
+        <v>380</v>
+      </c>
+      <c r="F214" t="n">
+        <v>164.2674</v>
+      </c>
+      <c r="G214" t="n">
+        <v>8109.410978749998</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>380</v>
+      </c>
+      <c r="C215" t="n">
+        <v>381</v>
+      </c>
+      <c r="D215" t="n">
+        <v>381</v>
+      </c>
+      <c r="E215" t="n">
+        <v>379</v>
+      </c>
+      <c r="F215" t="n">
+        <v>876.7912</v>
+      </c>
+      <c r="G215" t="n">
+        <v>8986.202178749998</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>380</v>
+      </c>
+      <c r="C216" t="n">
+        <v>380</v>
+      </c>
+      <c r="D216" t="n">
+        <v>380</v>
+      </c>
+      <c r="E216" t="n">
+        <v>380</v>
+      </c>
+      <c r="F216" t="n">
+        <v>207.6572</v>
+      </c>
+      <c r="G216" t="n">
+        <v>8778.544978749998</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>380</v>
+      </c>
+      <c r="C217" t="n">
+        <v>380</v>
+      </c>
+      <c r="D217" t="n">
+        <v>380</v>
+      </c>
+      <c r="E217" t="n">
+        <v>380</v>
+      </c>
+      <c r="F217" t="n">
+        <v>587.4453</v>
+      </c>
+      <c r="G217" t="n">
+        <v>8778.544978749998</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>380</v>
+      </c>
+      <c r="C218" t="n">
+        <v>380</v>
+      </c>
+      <c r="D218" t="n">
+        <v>380</v>
+      </c>
+      <c r="E218" t="n">
+        <v>380</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2190.3042</v>
+      </c>
+      <c r="G218" t="n">
+        <v>8778.544978749998</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>379</v>
+      </c>
+      <c r="C219" t="n">
+        <v>379</v>
+      </c>
+      <c r="D219" t="n">
+        <v>379</v>
+      </c>
+      <c r="E219" t="n">
+        <v>379</v>
+      </c>
+      <c r="F219" t="n">
+        <v>243.2109</v>
+      </c>
+      <c r="G219" t="n">
+        <v>8535.334078749998</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>379</v>
+      </c>
+      <c r="C220" t="n">
+        <v>379</v>
+      </c>
+      <c r="D220" t="n">
+        <v>379</v>
+      </c>
+      <c r="E220" t="n">
+        <v>379</v>
+      </c>
+      <c r="F220" t="n">
+        <v>567.4383</v>
+      </c>
+      <c r="G220" t="n">
+        <v>8535.334078749998</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>379</v>
+      </c>
+      <c r="C221" t="n">
+        <v>379</v>
+      </c>
+      <c r="D221" t="n">
+        <v>379</v>
+      </c>
+      <c r="E221" t="n">
+        <v>379</v>
+      </c>
+      <c r="F221" t="n">
+        <v>414.0768</v>
+      </c>
+      <c r="G221" t="n">
+        <v>8535.334078749998</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>379</v>
+      </c>
+      <c r="C222" t="n">
+        <v>379</v>
+      </c>
+      <c r="D222" t="n">
+        <v>379</v>
+      </c>
+      <c r="E222" t="n">
+        <v>379</v>
+      </c>
+      <c r="F222" t="n">
+        <v>169.905</v>
+      </c>
+      <c r="G222" t="n">
+        <v>8535.334078749998</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>379</v>
+      </c>
+      <c r="C223" t="n">
+        <v>379</v>
+      </c>
+      <c r="D223" t="n">
+        <v>379</v>
+      </c>
+      <c r="E223" t="n">
+        <v>379</v>
+      </c>
+      <c r="F223" t="n">
+        <v>184.711</v>
+      </c>
+      <c r="G223" t="n">
+        <v>8535.334078749998</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>379</v>
+      </c>
+      <c r="C224" t="n">
+        <v>379</v>
+      </c>
+      <c r="D224" t="n">
+        <v>379</v>
+      </c>
+      <c r="E224" t="n">
+        <v>379</v>
+      </c>
+      <c r="F224" t="n">
+        <v>689.748</v>
+      </c>
+      <c r="G224" t="n">
+        <v>8535.334078749998</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>379</v>
+      </c>
+      <c r="C225" t="n">
+        <v>379</v>
+      </c>
+      <c r="D225" t="n">
+        <v>379</v>
+      </c>
+      <c r="E225" t="n">
+        <v>379</v>
+      </c>
+      <c r="F225" t="n">
+        <v>266.94</v>
+      </c>
+      <c r="G225" t="n">
+        <v>8535.334078749998</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>378</v>
+      </c>
+      <c r="C226" t="n">
+        <v>378</v>
+      </c>
+      <c r="D226" t="n">
+        <v>378</v>
+      </c>
+      <c r="E226" t="n">
+        <v>378</v>
+      </c>
+      <c r="F226" t="n">
+        <v>5.9077</v>
+      </c>
+      <c r="G226" t="n">
+        <v>8529.426378749999</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>378</v>
+      </c>
+      <c r="C227" t="n">
+        <v>378</v>
+      </c>
+      <c r="D227" t="n">
+        <v>378</v>
+      </c>
+      <c r="E227" t="n">
+        <v>378</v>
+      </c>
+      <c r="F227" t="n">
+        <v>200</v>
+      </c>
+      <c r="G227" t="n">
+        <v>8529.426378749999</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>378</v>
+      </c>
+      <c r="C228" t="n">
+        <v>378</v>
+      </c>
+      <c r="D228" t="n">
+        <v>378</v>
+      </c>
+      <c r="E228" t="n">
+        <v>378</v>
+      </c>
+      <c r="F228" t="n">
+        <v>100</v>
+      </c>
+      <c r="G228" t="n">
+        <v>8529.426378749999</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>378</v>
+      </c>
+      <c r="C229" t="n">
+        <v>380</v>
+      </c>
+      <c r="D229" t="n">
+        <v>380</v>
+      </c>
+      <c r="E229" t="n">
+        <v>378</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2393.6329</v>
+      </c>
+      <c r="G229" t="n">
+        <v>10923.05927875</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>378</v>
+      </c>
+      <c r="C230" t="n">
+        <v>378</v>
+      </c>
+      <c r="D230" t="n">
+        <v>378</v>
+      </c>
+      <c r="E230" t="n">
+        <v>378</v>
+      </c>
+      <c r="F230" t="n">
+        <v>192.9107</v>
+      </c>
+      <c r="G230" t="n">
+        <v>10730.14857875</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>377</v>
+      </c>
+      <c r="C231" t="n">
+        <v>377</v>
+      </c>
+      <c r="D231" t="n">
+        <v>377</v>
+      </c>
+      <c r="E231" t="n">
+        <v>377</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1603.5705</v>
+      </c>
+      <c r="G231" t="n">
+        <v>9126.578078749999</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>379</v>
+      </c>
+      <c r="C232" t="n">
+        <v>379</v>
+      </c>
+      <c r="D232" t="n">
+        <v>379</v>
+      </c>
+      <c r="E232" t="n">
+        <v>379</v>
+      </c>
+      <c r="F232" t="n">
+        <v>98.45529999999999</v>
+      </c>
+      <c r="G232" t="n">
+        <v>9225.033378749999</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>380</v>
+      </c>
+      <c r="C233" t="n">
+        <v>380</v>
+      </c>
+      <c r="D233" t="n">
+        <v>380</v>
+      </c>
+      <c r="E233" t="n">
+        <v>380</v>
+      </c>
+      <c r="F233" t="n">
+        <v>131.57894736</v>
+      </c>
+      <c r="G233" t="n">
+        <v>9356.612326109998</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>379</v>
+      </c>
+      <c r="C234" t="n">
+        <v>377</v>
+      </c>
+      <c r="D234" t="n">
+        <v>379</v>
+      </c>
+      <c r="E234" t="n">
+        <v>377</v>
+      </c>
+      <c r="F234" t="n">
+        <v>2683.5097</v>
+      </c>
+      <c r="G234" t="n">
+        <v>6673.102626109998</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>378</v>
+      </c>
+      <c r="C235" t="n">
+        <v>376</v>
+      </c>
+      <c r="D235" t="n">
+        <v>378</v>
+      </c>
+      <c r="E235" t="n">
+        <v>376</v>
+      </c>
+      <c r="F235" t="n">
+        <v>3411.3151</v>
+      </c>
+      <c r="G235" t="n">
+        <v>3261.787526109998</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>376</v>
+      </c>
+      <c r="C236" t="n">
+        <v>376</v>
+      </c>
+      <c r="D236" t="n">
+        <v>377</v>
+      </c>
+      <c r="E236" t="n">
+        <v>376</v>
+      </c>
+      <c r="F236" t="n">
+        <v>992.37</v>
+      </c>
+      <c r="G236" t="n">
+        <v>3261.787526109998</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>376</v>
+      </c>
+      <c r="C237" t="n">
+        <v>369</v>
+      </c>
+      <c r="D237" t="n">
+        <v>376</v>
+      </c>
+      <c r="E237" t="n">
+        <v>369</v>
+      </c>
+      <c r="F237" t="n">
+        <v>353</v>
+      </c>
+      <c r="G237" t="n">
+        <v>2908.787526109998</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>377</v>
+      </c>
+      <c r="C238" t="n">
+        <v>377</v>
+      </c>
+      <c r="D238" t="n">
+        <v>377</v>
+      </c>
+      <c r="E238" t="n">
+        <v>377</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G238" t="n">
+        <v>2910.117526109998</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>377</v>
+      </c>
+      <c r="C239" t="n">
+        <v>377</v>
+      </c>
+      <c r="D239" t="n">
+        <v>377</v>
+      </c>
+      <c r="E239" t="n">
+        <v>377</v>
+      </c>
+      <c r="F239" t="n">
+        <v>3.6076</v>
+      </c>
+      <c r="G239" t="n">
+        <v>2910.117526109998</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-21 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-21 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N239"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>6044.034100000003</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>1768.476300000003</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>364</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>2008.858300000003</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>360</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,19 @@
         <v>16203.4328</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>364</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,22 +599,21 @@
         <v>20516.02500000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,20 +640,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -700,20 +677,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -738,22 +712,21 @@
         <v>23508.58500000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -778,22 +751,21 @@
         <v>22193.81440000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -818,22 +790,21 @@
         <v>28236.96560000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -858,22 +829,21 @@
         <v>15746.24980000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -900,20 +870,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -940,20 +907,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -980,20 +944,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1020,20 +981,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1060,20 +1018,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1100,20 +1055,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1140,20 +1092,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1180,20 +1129,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1220,20 +1166,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1260,20 +1203,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1300,20 +1240,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1340,20 +1277,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1380,20 +1314,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1420,20 +1351,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1460,20 +1388,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1500,20 +1425,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1540,20 +1462,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1580,20 +1499,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1620,20 +1536,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1660,20 +1573,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1700,20 +1610,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1740,20 +1647,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1780,20 +1684,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1818,22 +1719,21 @@
         <v>-2522.181999999993</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1860,20 +1760,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1898,22 +1795,21 @@
         <v>-2573.561799999993</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1940,20 +1836,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1980,20 +1873,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2020,20 +1910,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2060,20 +1947,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2100,20 +1984,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2138,22 +2019,21 @@
         <v>-3637.281499999993</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2180,20 +2060,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2218,22 +2095,21 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2260,20 +2136,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2298,22 +2171,21 @@
         <v>-4545.439299999994</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>367</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2340,20 +2212,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2380,20 +2249,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2420,20 +2286,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2460,20 +2323,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2500,20 +2360,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2540,20 +2397,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2580,20 +2434,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2620,20 +2471,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2660,20 +2508,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2700,20 +2545,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2740,20 +2582,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2780,20 +2619,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2820,20 +2656,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2860,20 +2693,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2900,20 +2730,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2940,20 +2767,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2980,20 +2804,17 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3020,20 +2841,17 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3060,20 +2878,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3100,20 +2915,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3140,20 +2952,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3180,20 +2989,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3220,20 +3026,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3260,20 +3063,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3300,20 +3100,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3340,20 +3137,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3380,20 +3174,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3420,20 +3211,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3460,20 +3248,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3500,20 +3285,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3540,20 +3322,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3580,20 +3359,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3620,20 +3396,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3660,20 +3433,17 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3700,20 +3470,17 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3740,20 +3507,17 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3780,20 +3544,17 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3820,20 +3581,17 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3860,20 +3618,17 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3900,20 +3655,17 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3940,20 +3692,17 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3980,20 +3729,17 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4020,20 +3766,17 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4060,20 +3803,17 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4100,20 +3840,17 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4140,20 +3877,17 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4180,20 +3914,17 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4220,20 +3951,17 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4260,20 +3988,17 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4300,20 +4025,17 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4340,20 +4062,17 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4380,20 +4099,17 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4420,20 +4136,17 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4460,20 +4173,17 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4500,20 +4210,17 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4540,20 +4247,17 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4580,20 +4284,17 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4620,20 +4321,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4660,20 +4358,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4700,20 +4395,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4740,20 +4432,17 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4780,20 +4469,17 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4820,20 +4506,17 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4860,20 +4543,17 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4900,20 +4580,17 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4940,20 +4617,17 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4980,20 +4654,17 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5020,20 +4691,17 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5058,22 +4726,21 @@
         <v>-4638.778699999997</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5100,20 +4767,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5138,22 +4802,21 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5178,22 +4841,21 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5218,24 +4880,21 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
         <v>361</v>
       </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5260,22 +4919,21 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5300,22 +4958,21 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5340,24 +4997,21 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
         <v>361</v>
       </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5382,24 +5036,21 @@
         <v>-4487.378699999997</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="n">
         <v>361</v>
       </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5424,22 +5075,21 @@
         <v>-4715.278699999997</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5464,22 +5114,21 @@
         <v>-4274.878699999997</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5504,22 +5153,21 @@
         <v>-4274.878699999997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5544,22 +5192,21 @@
         <v>-4172.878699999997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5586,20 +5233,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5626,20 +5270,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5666,20 +5307,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5706,20 +5344,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5746,20 +5381,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5786,20 +5418,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5826,20 +5455,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5866,20 +5492,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5906,20 +5529,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5946,20 +5566,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5984,22 +5601,17 @@
         <v>6418.581400000002</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6024,22 +5636,15 @@
         <v>6502.757100000002</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6064,22 +5669,15 @@
         <v>7437.001300000002</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6104,22 +5702,15 @@
         <v>16384.1903</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6144,22 +5735,15 @@
         <v>17176.319</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6184,22 +5768,15 @@
         <v>17176.319</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6224,22 +5801,15 @@
         <v>17176.319</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6264,22 +5834,15 @@
         <v>16509.5618</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6304,22 +5867,15 @@
         <v>17110.4918</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6344,22 +5900,15 @@
         <v>16257.1918</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6384,22 +5933,15 @@
         <v>15662.1461</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6426,20 +5968,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6464,22 +5999,15 @@
         <v>16799.17977875</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6506,20 +6034,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6546,20 +6067,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6584,22 +6098,15 @@
         <v>16656.73197875</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6624,22 +6131,15 @@
         <v>16656.73197875</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6666,20 +6166,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6704,22 +6197,15 @@
         <v>17736.27707875</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6746,20 +6232,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6784,22 +6263,15 @@
         <v>18578.29167875</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6824,20 +6296,15 @@
         <v>19241.29167875</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L161" t="n">
+        <v>1</v>
       </c>
       <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6864,16 +6331,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6898,18 +6362,15 @@
         <v>19375.29167875</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6934,18 +6395,15 @@
         <v>19221.29167875</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6972,16 +6430,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7008,16 +6463,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7044,16 +6496,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7078,18 +6527,15 @@
         <v>18396.69917875</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7114,18 +6560,15 @@
         <v>18396.69917875</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7150,18 +6593,15 @@
         <v>18396.69917875</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7186,18 +6626,15 @@
         <v>16908.10437875</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7224,16 +6661,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7260,16 +6694,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>1</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7294,18 +6725,15 @@
         <v>17762.52697875</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7332,16 +6760,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7368,16 +6793,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7404,16 +6826,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7440,16 +6859,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7476,16 +6892,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7512,16 +6925,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7548,16 +6958,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7584,16 +6991,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7620,16 +7024,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7656,16 +7057,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7692,16 +7090,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7728,16 +7123,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7764,16 +7156,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7800,16 +7189,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7834,18 +7220,15 @@
         <v>6242.605078749999</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7872,16 +7255,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7908,16 +7288,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7944,16 +7321,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7978,18 +7352,15 @@
         <v>8400.789378749998</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8016,16 +7387,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8050,18 +7418,15 @@
         <v>8524.434578749999</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8086,18 +7451,15 @@
         <v>8088.367278749999</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8124,16 +7486,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8160,16 +7519,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8196,16 +7552,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8232,16 +7585,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8268,16 +7618,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8304,16 +7651,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8338,18 +7682,15 @@
         <v>9278.582478749999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8374,18 +7715,15 @@
         <v>9268.582478749999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8410,18 +7748,15 @@
         <v>9220.548778749999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8448,16 +7783,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8482,18 +7814,15 @@
         <v>9358.315778749999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8520,16 +7849,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8556,16 +7882,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8592,16 +7915,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8628,16 +7948,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8664,16 +7981,13 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8700,16 +8014,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8736,16 +8047,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8772,16 +8080,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8808,16 +8113,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8844,16 +8146,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8880,16 +8179,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8916,16 +8212,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8950,18 +8243,15 @@
         <v>8535.334078749998</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8986,18 +8276,15 @@
         <v>8535.334078749998</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -9022,18 +8309,15 @@
         <v>8535.334078749998</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9058,18 +8342,15 @@
         <v>8535.334078749998</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9094,18 +8375,15 @@
         <v>8535.334078749998</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9132,16 +8410,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9168,16 +8443,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9204,16 +8476,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9240,16 +8509,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9276,16 +8542,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9310,18 +8573,15 @@
         <v>10730.14857875</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9346,18 +8606,15 @@
         <v>9126.578078749999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9382,18 +8639,15 @@
         <v>9225.033378749999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9418,18 +8672,15 @@
         <v>9356.612326109998</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9454,18 +8705,15 @@
         <v>6673.102626109998</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9490,18 +8738,15 @@
         <v>3261.787526109998</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9526,18 +8771,15 @@
         <v>3261.787526109998</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9564,16 +8806,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9600,16 +8839,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9636,18 +8872,15 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-21 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6044.034100000003</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1768.476300000003</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>364</v>
@@ -523,7 +523,7 @@
         <v>2008.858300000003</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>360</v>
@@ -562,9 +562,11 @@
         <v>16203.4328</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>364</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -599,11 +601,9 @@
         <v>20516.02500000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -712,11 +712,9 @@
         <v>23508.58500000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -751,11 +749,9 @@
         <v>22193.81440000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -790,11 +786,9 @@
         <v>28236.96560000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -829,11 +823,9 @@
         <v>15746.24980000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -1719,11 +1711,9 @@
         <v>-2522.181999999993</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>371</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
@@ -1795,11 +1785,9 @@
         <v>-2573.561799999993</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>372</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -2019,11 +2007,9 @@
         <v>-3637.281499999993</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2095,11 +2081,9 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2171,11 +2155,9 @@
         <v>-4545.439299999994</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>367</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -4726,11 +4708,9 @@
         <v>-4638.778699999997</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>355</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4802,11 +4782,9 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4841,7 +4819,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>361</v>
@@ -4880,7 +4858,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>361</v>
@@ -4919,7 +4897,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>361</v>
@@ -4958,7 +4936,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>361</v>
@@ -4997,7 +4975,7 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>361</v>
@@ -5036,7 +5014,7 @@
         <v>-4487.378699999997</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>361</v>
@@ -5075,7 +5053,7 @@
         <v>-4715.278699999997</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>364</v>
@@ -5114,7 +5092,7 @@
         <v>-4274.878699999997</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>361</v>
@@ -5153,11 +5131,9 @@
         <v>-4274.878699999997</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5192,11 +5168,9 @@
         <v>-4172.878699999997</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
-      </c>
-      <c r="I129" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5601,16 +5575,18 @@
         <v>6418.581400000002</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L140" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
       <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
@@ -5636,11 +5612,15 @@
         <v>6502.757100000002</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5669,11 +5649,15 @@
         <v>7437.001300000002</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5702,11 +5686,15 @@
         <v>16384.1903</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5735,11 +5723,15 @@
         <v>17176.319</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5768,11 +5760,15 @@
         <v>17176.319</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5801,11 +5797,15 @@
         <v>17176.319</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5834,11 +5834,15 @@
         <v>16509.5618</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5867,11 +5871,15 @@
         <v>17110.4918</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5900,11 +5908,15 @@
         <v>16257.1918</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5933,11 +5945,15 @@
         <v>15662.1461</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5970,7 +5986,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5999,11 +6019,15 @@
         <v>16799.17977875</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6036,7 +6060,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6069,7 +6097,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6098,11 +6130,15 @@
         <v>16656.73197875</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6131,11 +6167,15 @@
         <v>16656.73197875</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6168,7 +6208,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6197,11 +6241,15 @@
         <v>17736.27707875</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6234,7 +6282,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6263,11 +6315,15 @@
         <v>18578.29167875</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6296,11 +6352,15 @@
         <v>19241.29167875</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6333,7 +6393,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6362,11 +6426,15 @@
         <v>19375.29167875</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6395,11 +6463,15 @@
         <v>19221.29167875</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6432,7 +6504,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6465,7 +6541,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6498,7 +6578,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6527,11 +6611,15 @@
         <v>18396.69917875</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6560,14 +6648,16 @@
         <v>18396.69917875</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -6593,7 +6683,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6626,7 +6716,7 @@
         <v>16908.10437875</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6725,7 +6815,7 @@
         <v>17762.52697875</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6956,7 +7046,7 @@
         <v>8247.828778749999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6989,7 +7079,7 @@
         <v>8247.828778749999</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7022,7 +7112,7 @@
         <v>8247.828778749999</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7055,7 +7145,7 @@
         <v>8247.828778749999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7088,7 +7178,7 @@
         <v>10280.16887875</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7121,7 +7211,7 @@
         <v>10280.16887875</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7154,7 +7244,7 @@
         <v>10180.16887875</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7187,7 +7277,7 @@
         <v>4314.344678749999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7220,7 +7310,7 @@
         <v>6242.605078749999</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7253,7 +7343,7 @@
         <v>5962.697578749999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7286,7 +7376,7 @@
         <v>8459.938478749998</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7319,7 +7409,7 @@
         <v>8375.789378749998</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7352,7 +7442,7 @@
         <v>8400.789378749998</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7385,7 +7475,7 @@
         <v>8524.434578749999</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7418,7 +7508,7 @@
         <v>8524.434578749999</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7451,7 +7541,7 @@
         <v>8088.367278749999</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7484,7 +7574,7 @@
         <v>9409.420478749998</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7517,7 +7607,7 @@
         <v>9409.420478749998</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7550,7 +7640,7 @@
         <v>8793.582478749999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7583,7 +7673,7 @@
         <v>8793.582478749999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7616,7 +7706,7 @@
         <v>8610.582478749999</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7649,7 +7739,7 @@
         <v>9278.582478749999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7682,7 +7772,7 @@
         <v>9278.582478749999</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7715,7 +7805,7 @@
         <v>9268.582478749999</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7748,7 +7838,7 @@
         <v>9220.548778749999</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7781,7 +7871,7 @@
         <v>9358.315778749999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7814,7 +7904,7 @@
         <v>9358.315778749999</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7847,7 +7937,7 @@
         <v>8012.875678749999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7880,7 +7970,7 @@
         <v>8354.875678749999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7913,7 +8003,7 @@
         <v>8292.875678749999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7946,7 +8036,7 @@
         <v>8869.875678749999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7979,7 +8069,7 @@
         <v>7810.410978749998</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8012,7 +8102,7 @@
         <v>8109.410978749998</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8045,7 +8135,7 @@
         <v>8109.410978749998</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8243,7 +8333,7 @@
         <v>8535.334078749998</v>
       </c>
       <c r="H220" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8276,7 +8366,7 @@
         <v>8535.334078749998</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8309,7 +8399,7 @@
         <v>8535.334078749998</v>
       </c>
       <c r="H222" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8342,7 +8432,7 @@
         <v>8535.334078749998</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8375,7 +8465,7 @@
         <v>8535.334078749998</v>
       </c>
       <c r="H224" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8573,7 +8663,7 @@
         <v>10730.14857875</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8606,7 +8696,7 @@
         <v>9126.578078749999</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8639,7 +8729,7 @@
         <v>9225.033378749999</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8672,7 +8762,7 @@
         <v>9356.612326109998</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8705,7 +8795,7 @@
         <v>6673.102626109998</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8738,7 +8828,7 @@
         <v>3261.787526109998</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8771,7 +8861,7 @@
         <v>3261.787526109998</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8881,6 +8971,6 @@
       <c r="M239" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-21 BackTest STRAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>6044.034100000003</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>1768.476300000003</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>2008.858300000003</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>16203.4328</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -605,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -642,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -716,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,15 +715,11 @@
         <v>22193.81440000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,15 +748,11 @@
         <v>28236.96560000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,15 +781,11 @@
         <v>15746.24980000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,15 +814,11 @@
         <v>19549.94800000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,15 +847,11 @@
         <v>17516.94800000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,15 +880,11 @@
         <v>19442.66300000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,15 +913,11 @@
         <v>19442.66300000001</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,15 +946,11 @@
         <v>19443.97200000001</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1049,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1086,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1123,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1160,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1197,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1234,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1271,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1308,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1345,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1382,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1419,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,15 +1342,11 @@
         <v>6464.433400000008</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1489,15 +1375,11 @@
         <v>-2032.378499999993</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,15 +1408,11 @@
         <v>-2719.913099999992</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1563,15 +1441,11 @@
         <v>-2688.300099999993</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1600,15 +1474,11 @@
         <v>-3926.593699999993</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1637,15 +1507,11 @@
         <v>-3926.593699999993</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1674,15 +1540,11 @@
         <v>-3000.110199999993</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1711,15 +1573,11 @@
         <v>-2522.181999999993</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1748,15 +1606,11 @@
         <v>-2542.089199999993</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1785,15 +1639,11 @@
         <v>-2573.561799999993</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1822,15 +1672,11 @@
         <v>-3080.431499999993</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1859,15 +1705,11 @@
         <v>-3080.431499999993</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1896,15 +1738,11 @@
         <v>-3079.031499999993</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,15 +1771,11 @@
         <v>-3320.207399999993</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,15 +1804,11 @@
         <v>-3637.281499999993</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,15 +1837,11 @@
         <v>-3637.281499999993</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,15 +1870,11 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2081,15 +1903,11 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,15 +1936,11 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2155,15 +1969,11 @@
         <v>-4545.439299999994</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2192,15 +2002,11 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2229,15 +2035,11 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2266,15 +2068,11 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2307,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2344,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2381,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2418,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2455,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2492,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2529,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2566,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2603,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2640,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2677,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2714,11 +2468,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2751,11 +2501,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +2534,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2825,11 +2567,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2862,11 +2600,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2899,11 +2633,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2936,11 +2666,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2973,11 +2699,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +2732,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3047,11 +2765,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3084,11 +2798,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3121,11 +2831,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +2864,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3195,11 +2897,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3232,11 +2930,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3269,11 +2963,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3306,11 +2996,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3343,11 +3029,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3380,11 +3062,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3417,11 +3095,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3454,11 +3128,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3491,11 +3161,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3528,11 +3194,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3565,11 +3227,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3602,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3639,11 +3293,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3676,11 +3326,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3713,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3750,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3787,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3824,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3861,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3898,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3935,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3972,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4009,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4046,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4083,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4120,11 +3722,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4157,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4194,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4231,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4268,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4305,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4342,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4379,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4416,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4453,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4490,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4527,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4564,11 +4118,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4601,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4638,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4712,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4749,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4786,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4819,17 +4345,11 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4858,17 +4378,11 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4897,17 +4411,11 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4941,12 +4449,10 @@
       <c r="I123" t="n">
         <v>361</v>
       </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="n">
+        <v>361</v>
+      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4980,10 +4486,12 @@
       <c r="I124" t="n">
         <v>361</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>361</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -5019,10 +4527,12 @@
       <c r="I125" t="n">
         <v>361</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>361</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -5058,12 +4568,10 @@
       <c r="I126" t="n">
         <v>364</v>
       </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="n">
+        <v>364</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5097,10 +4605,12 @@
       <c r="I127" t="n">
         <v>361</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>364</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -5131,13 +4641,17 @@
         <v>-4274.878699999997</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>364</v>
+      </c>
+      <c r="J128" t="n">
+        <v>364</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -5168,15 +4682,15 @@
         <v>-4172.878699999997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>364</v>
+      </c>
+      <c r="J129" t="n">
+        <v>364</v>
+      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5208,10 +4722,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>364</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -5245,10 +4761,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>364</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -5283,11 +4801,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5320,11 +4834,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5357,11 +4867,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5394,11 +4900,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5431,11 +4933,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5468,11 +4966,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5505,11 +4999,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5542,11 +5032,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5579,11 +5065,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5616,11 +5098,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5653,11 +5131,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5690,11 +5164,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5727,11 +5197,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5764,11 +5230,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5801,11 +5263,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5838,11 +5296,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5875,11 +5329,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5912,11 +5362,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5949,11 +5395,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5986,11 +5428,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6023,11 +5461,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6060,11 +5494,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6097,11 +5527,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6134,11 +5560,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6171,11 +5593,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6208,11 +5626,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6245,11 +5659,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6282,11 +5692,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6319,11 +5725,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6356,11 +5758,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6393,11 +5791,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6430,11 +5824,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6467,11 +5857,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6504,11 +5890,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6541,11 +5923,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6578,11 +5956,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6615,11 +5989,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6648,16 +6018,14 @@
         <v>18396.69917875</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
       <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
@@ -6683,7 +6051,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6716,7 +6084,7 @@
         <v>16908.10437875</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -7046,7 +6414,7 @@
         <v>8247.828778749999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7079,7 +6447,7 @@
         <v>8247.828778749999</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7112,7 +6480,7 @@
         <v>8247.828778749999</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7145,7 +6513,7 @@
         <v>8247.828778749999</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7178,7 +6546,7 @@
         <v>10280.16887875</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7211,7 +6579,7 @@
         <v>10280.16887875</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7244,7 +6612,7 @@
         <v>10180.16887875</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7277,7 +6645,7 @@
         <v>4314.344678749999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7310,7 +6678,7 @@
         <v>6242.605078749999</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7343,7 +6711,7 @@
         <v>5962.697578749999</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7376,7 +6744,7 @@
         <v>8459.938478749998</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7409,7 +6777,7 @@
         <v>8375.789378749998</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7442,7 +6810,7 @@
         <v>8400.789378749998</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7475,7 +6843,7 @@
         <v>8524.434578749999</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7508,7 +6876,7 @@
         <v>8524.434578749999</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7541,7 +6909,7 @@
         <v>8088.367278749999</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7574,7 +6942,7 @@
         <v>9409.420478749998</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7607,7 +6975,7 @@
         <v>9409.420478749998</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7640,7 +7008,7 @@
         <v>8793.582478749999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7673,7 +7041,7 @@
         <v>8793.582478749999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7706,7 +7074,7 @@
         <v>8610.582478749999</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7739,7 +7107,7 @@
         <v>9278.582478749999</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7772,7 +7140,7 @@
         <v>9278.582478749999</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7805,7 +7173,7 @@
         <v>9268.582478749999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7838,7 +7206,7 @@
         <v>9220.548778749999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7871,7 +7239,7 @@
         <v>9358.315778749999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7904,7 +7272,7 @@
         <v>9358.315778749999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7937,7 +7305,7 @@
         <v>8012.875678749999</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7970,7 +7338,7 @@
         <v>8354.875678749999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8003,7 +7371,7 @@
         <v>8292.875678749999</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8036,7 +7404,7 @@
         <v>8869.875678749999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8069,7 +7437,7 @@
         <v>7810.410978749998</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8102,7 +7470,7 @@
         <v>8109.410978749998</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8135,7 +7503,7 @@
         <v>8109.410978749998</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8663,7 +8031,7 @@
         <v>10730.14857875</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8729,7 +8097,7 @@
         <v>9225.033378749999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8762,7 +8130,7 @@
         <v>9356.612326109998</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8971,6 +8339,6 @@
       <c r="M239" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-21 BackTest STRAT.xlsx
@@ -451,7 +451,7 @@
         <v>6044.034100000003</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1768.476300000003</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>364</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>2008.858300000003</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>360</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>16203.4328</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>364</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +605,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,7 +642,11 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +679,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -686,7 +716,11 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +749,15 @@
         <v>22193.81440000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +786,15 @@
         <v>28236.96560000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +823,15 @@
         <v>15746.24980000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +860,15 @@
         <v>19549.94800000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +897,15 @@
         <v>17516.94800000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +934,15 @@
         <v>19442.66300000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +971,15 @@
         <v>19442.66300000001</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1008,15 @@
         <v>19443.97200000001</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1049,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1086,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1123,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1160,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1197,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1234,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1271,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1308,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1345,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1382,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1419,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1452,15 @@
         <v>6464.433400000008</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1489,15 @@
         <v>-2032.378499999993</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1526,15 @@
         <v>-2719.913099999992</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1563,15 @@
         <v>-2688.300099999993</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1600,15 @@
         <v>-3926.593699999993</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1637,15 @@
         <v>-3926.593699999993</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1674,15 @@
         <v>-3000.110199999993</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1711,15 @@
         <v>-2522.181999999993</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1748,15 @@
         <v>-2542.089199999993</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1785,15 @@
         <v>-2573.561799999993</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1822,15 @@
         <v>-3080.431499999993</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1859,15 @@
         <v>-3080.431499999993</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1896,15 @@
         <v>-3079.031499999993</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1933,15 @@
         <v>-3320.207399999993</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1970,15 @@
         <v>-3637.281499999993</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +2007,15 @@
         <v>-3637.281499999993</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +2044,15 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +2081,15 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2118,15 @@
         <v>-4666.790399999993</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2155,15 @@
         <v>-4545.439299999994</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2192,15 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2229,15 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2266,15 @@
         <v>-4045.439299999994</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2307,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2344,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2381,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2418,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2455,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2492,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2529,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2566,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2603,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2640,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2677,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2714,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2751,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2788,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2825,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2862,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2899,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2936,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2973,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +3010,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +3047,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +3084,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +3121,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3158,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3195,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2930,7 +3232,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3269,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3306,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3343,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3062,7 +3380,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3095,7 +3417,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3128,7 +3454,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3161,7 +3491,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3528,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3565,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3602,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3293,7 +3639,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3326,7 +3676,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3713,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3392,7 +3750,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,7 +3787,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3458,7 +3824,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3491,7 +3861,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3524,7 +3898,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3557,7 +3935,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3590,7 +3972,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3623,7 +4009,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3656,7 +4046,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3689,7 +4083,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3722,7 +4120,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,7 +4157,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3788,7 +4194,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3821,7 +4231,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3854,7 +4268,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3887,7 +4305,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3920,7 +4342,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3953,7 +4379,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3986,7 +4416,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4019,7 +4453,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4052,7 +4490,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,7 +4527,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4564,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,7 +4601,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4184,7 +4638,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4217,7 +4675,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4250,7 +4712,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4283,7 +4749,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4786,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4823,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4860,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4897,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4444,15 +4930,15 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>361</v>
-      </c>
-      <c r="J123" t="n">
-        <v>361</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,17 +4967,13 @@
         <v>-4637.378699999997</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>361</v>
-      </c>
-      <c r="J124" t="n">
-        <v>361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L124" t="n">
@@ -4522,17 +5004,13 @@
         <v>-4487.378699999997</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>361</v>
-      </c>
-      <c r="J125" t="n">
-        <v>361</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -4563,15 +5041,15 @@
         <v>-4715.278699999997</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>364</v>
-      </c>
-      <c r="J126" t="n">
-        <v>364</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4600,17 +5078,13 @@
         <v>-4274.878699999997</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>361</v>
-      </c>
-      <c r="J127" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -4641,17 +5115,13 @@
         <v>-4274.878699999997</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>364</v>
-      </c>
-      <c r="J128" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -4682,15 +5152,15 @@
         <v>-4172.878699999997</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>364</v>
-      </c>
-      <c r="J129" t="n">
-        <v>364</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4722,12 +5192,10 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>364</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L130" t="n">
@@ -4761,12 +5229,10 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>364</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L131" t="n">
@@ -4801,7 +5267,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4834,7 +5304,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4867,7 +5341,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4900,7 +5378,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4933,7 +5415,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4966,7 +5452,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4999,7 +5489,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5032,7 +5526,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5065,7 +5563,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5098,7 +5600,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5131,7 +5637,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5164,7 +5674,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5197,7 +5711,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5230,7 +5748,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5263,7 +5785,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5296,7 +5822,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5329,7 +5859,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5362,7 +5896,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5395,7 +5933,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5970,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5461,7 +6007,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5490,14 +6040,16 @@
         <v>16656.73197875</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
@@ -5523,7 +6075,7 @@
         <v>16656.73197875</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5556,7 +6108,7 @@
         <v>16656.73197875</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5589,7 +6141,7 @@
         <v>16656.73197875</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5655,7 +6207,7 @@
         <v>17736.27707875</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5721,7 +6273,7 @@
         <v>18578.29167875</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5754,7 +6306,7 @@
         <v>19241.29167875</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5787,7 +6339,7 @@
         <v>19375.29167875</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5820,7 +6372,7 @@
         <v>19375.29167875</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5853,7 +6405,7 @@
         <v>19221.29167875</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5886,7 +6438,7 @@
         <v>19221.29167875</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5919,7 +6471,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5952,7 +6504,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5985,7 +6537,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6018,7 +6570,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6051,7 +6603,7 @@
         <v>18396.69917875</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6084,7 +6636,7 @@
         <v>16908.10437875</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6117,7 +6669,7 @@
         <v>17492.02017875</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6150,7 +6702,7 @@
         <v>17762.52697875</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6183,7 +6735,7 @@
         <v>17762.52697875</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6216,7 +6768,7 @@
         <v>17719.01877875</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6249,7 +6801,7 @@
         <v>11218.59357875</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>

--- a/BackTest/2019-11-21 BackTest STRAT.xlsx
+++ b/BackTest/2019-11-21 BackTest STRAT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>159</v>
       </c>
       <c r="G2" t="n">
-        <v>6044.034100000003</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>4275.5578</v>
       </c>
       <c r="G3" t="n">
-        <v>1768.476300000003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>240.382</v>
       </c>
       <c r="G4" t="n">
-        <v>2008.858300000003</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>14194.5745</v>
       </c>
       <c r="G5" t="n">
-        <v>16203.4328</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,22 +563,15 @@
         <v>4312.5922</v>
       </c>
       <c r="G6" t="n">
-        <v>20516.02500000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,22 +593,15 @@
         <v>1052.7427</v>
       </c>
       <c r="G7" t="n">
-        <v>20516.02500000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +623,15 @@
         <v>11.04</v>
       </c>
       <c r="G8" t="n">
-        <v>20516.02500000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -709,22 +653,15 @@
         <v>2992.56</v>
       </c>
       <c r="G9" t="n">
-        <v>23508.58500000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,22 +683,15 @@
         <v>1314.7706</v>
       </c>
       <c r="G10" t="n">
-        <v>22193.81440000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,22 +713,15 @@
         <v>6043.1512</v>
       </c>
       <c r="G11" t="n">
-        <v>28236.96560000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -820,22 +743,15 @@
         <v>12490.7158</v>
       </c>
       <c r="G12" t="n">
-        <v>15746.24980000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -857,22 +773,15 @@
         <v>3803.6982</v>
       </c>
       <c r="G13" t="n">
-        <v>19549.94800000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -894,22 +803,15 @@
         <v>2033</v>
       </c>
       <c r="G14" t="n">
-        <v>17516.94800000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -931,22 +833,15 @@
         <v>1925.715</v>
       </c>
       <c r="G15" t="n">
-        <v>19442.66300000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -968,22 +863,15 @@
         <v>4141.6998</v>
       </c>
       <c r="G16" t="n">
-        <v>19442.66300000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,22 +893,15 @@
         <v>1.309</v>
       </c>
       <c r="G17" t="n">
-        <v>19443.97200000001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1042,22 +923,15 @@
         <v>11318.0197</v>
       </c>
       <c r="G18" t="n">
-        <v>8125.952300000008</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1079,22 +953,15 @@
         <v>99.98560000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>8125.952300000008</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1116,22 +983,15 @@
         <v>1181.1911</v>
       </c>
       <c r="G20" t="n">
-        <v>8125.952300000008</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1153,22 +1013,15 @@
         <v>1659.4558</v>
       </c>
       <c r="G21" t="n">
-        <v>6466.496500000008</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1190,22 +1043,15 @@
         <v>1204.1418</v>
       </c>
       <c r="G22" t="n">
-        <v>6466.496500000008</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1227,22 +1073,15 @@
         <v>5648.9503</v>
       </c>
       <c r="G23" t="n">
-        <v>12115.44680000001</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1264,22 +1103,15 @@
         <v>1658.1936</v>
       </c>
       <c r="G24" t="n">
-        <v>10457.25320000001</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1301,22 +1133,15 @@
         <v>691.4</v>
       </c>
       <c r="G25" t="n">
-        <v>10457.25320000001</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,22 +1163,15 @@
         <v>3992.8198</v>
       </c>
       <c r="G26" t="n">
-        <v>6464.433400000008</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1375,22 +1193,15 @@
         <v>2219.5864</v>
       </c>
       <c r="G27" t="n">
-        <v>6464.433400000008</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,22 +1223,15 @@
         <v>3413.0747851</v>
       </c>
       <c r="G28" t="n">
-        <v>6464.433400000008</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1449,22 +1253,15 @@
         <v>3045.6334149</v>
       </c>
       <c r="G29" t="n">
-        <v>6464.433400000008</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,22 +1283,15 @@
         <v>8496.811900000001</v>
       </c>
       <c r="G30" t="n">
-        <v>-2032.378499999993</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1523,22 +1313,15 @@
         <v>687.5346</v>
       </c>
       <c r="G31" t="n">
-        <v>-2719.913099999992</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1560,22 +1343,15 @@
         <v>31.613</v>
       </c>
       <c r="G32" t="n">
-        <v>-2688.300099999993</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1597,22 +1373,15 @@
         <v>1238.2936</v>
       </c>
       <c r="G33" t="n">
-        <v>-3926.593699999993</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1634,22 +1403,15 @@
         <v>313.6396</v>
       </c>
       <c r="G34" t="n">
-        <v>-3926.593699999993</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1671,22 +1433,15 @@
         <v>926.4835</v>
       </c>
       <c r="G35" t="n">
-        <v>-3000.110199999993</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1708,22 +1463,15 @@
         <v>477.9282</v>
       </c>
       <c r="G36" t="n">
-        <v>-2522.181999999993</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1745,22 +1493,15 @@
         <v>19.9072</v>
       </c>
       <c r="G37" t="n">
-        <v>-2542.089199999993</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1782,22 +1523,15 @@
         <v>31.4726</v>
       </c>
       <c r="G38" t="n">
-        <v>-2573.561799999993</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1819,22 +1553,15 @@
         <v>506.8697</v>
       </c>
       <c r="G39" t="n">
-        <v>-3080.431499999993</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1856,22 +1583,15 @@
         <v>303.67</v>
       </c>
       <c r="G40" t="n">
-        <v>-3080.431499999993</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1893,22 +1613,15 @@
         <v>1.4</v>
       </c>
       <c r="G41" t="n">
-        <v>-3079.031499999993</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1930,22 +1643,15 @@
         <v>241.1759</v>
       </c>
       <c r="G42" t="n">
-        <v>-3320.207399999993</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1967,22 +1673,15 @@
         <v>317.0741</v>
       </c>
       <c r="G43" t="n">
-        <v>-3637.281499999993</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2004,22 +1703,15 @@
         <v>333.8854</v>
       </c>
       <c r="G44" t="n">
-        <v>-3637.281499999993</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2041,22 +1733,15 @@
         <v>1029.5089</v>
       </c>
       <c r="G45" t="n">
-        <v>-4666.790399999993</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2078,22 +1763,15 @@
         <v>59.87</v>
       </c>
       <c r="G46" t="n">
-        <v>-4666.790399999993</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2115,22 +1793,15 @@
         <v>340.8909</v>
       </c>
       <c r="G47" t="n">
-        <v>-4666.790399999993</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2152,22 +1823,15 @@
         <v>121.3511</v>
       </c>
       <c r="G48" t="n">
-        <v>-4545.439299999994</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2189,22 +1853,15 @@
         <v>500</v>
       </c>
       <c r="G49" t="n">
-        <v>-4045.439299999994</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2226,22 +1883,15 @@
         <v>89.93040000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>-4045.439299999994</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2263,22 +1913,15 @@
         <v>80.9374</v>
       </c>
       <c r="G51" t="n">
-        <v>-4045.439299999994</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2300,22 +1943,15 @@
         <v>375.0627</v>
       </c>
       <c r="G52" t="n">
-        <v>-4420.501999999994</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2337,22 +1973,15 @@
         <v>305.802</v>
       </c>
       <c r="G53" t="n">
-        <v>-4114.699999999994</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2374,22 +2003,15 @@
         <v>2871.1191</v>
       </c>
       <c r="G54" t="n">
-        <v>-1243.580899999994</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2411,22 +2033,15 @@
         <v>1319.8099</v>
       </c>
       <c r="G55" t="n">
-        <v>-2563.390799999995</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2448,22 +2063,15 @@
         <v>5.0544</v>
       </c>
       <c r="G56" t="n">
-        <v>-2563.390799999995</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2485,22 +2093,15 @@
         <v>154.9709</v>
       </c>
       <c r="G57" t="n">
-        <v>-2718.361699999994</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2522,22 +2123,15 @@
         <v>449.6174</v>
       </c>
       <c r="G58" t="n">
-        <v>-3167.979099999995</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2559,22 +2153,15 @@
         <v>1.4</v>
       </c>
       <c r="G59" t="n">
-        <v>-3166.579099999994</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2596,22 +2183,15 @@
         <v>1174.5563</v>
       </c>
       <c r="G60" t="n">
-        <v>-4341.135399999995</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2633,22 +2213,15 @@
         <v>302.1956</v>
       </c>
       <c r="G61" t="n">
-        <v>-4643.330999999995</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2670,22 +2243,15 @@
         <v>534.4759</v>
       </c>
       <c r="G62" t="n">
-        <v>-5177.806899999995</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2707,22 +2273,15 @@
         <v>107.5</v>
       </c>
       <c r="G63" t="n">
-        <v>-5070.306899999995</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2744,22 +2303,15 @@
         <v>4603.8761</v>
       </c>
       <c r="G64" t="n">
-        <v>-9674.182999999995</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2781,22 +2333,15 @@
         <v>181.7182</v>
       </c>
       <c r="G65" t="n">
-        <v>-9492.464799999996</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2818,22 +2363,15 @@
         <v>11263.6935</v>
       </c>
       <c r="G66" t="n">
-        <v>1771.228700000003</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2855,22 +2393,15 @@
         <v>22.3</v>
       </c>
       <c r="G67" t="n">
-        <v>1748.928700000003</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2892,22 +2423,15 @@
         <v>5080.3853</v>
       </c>
       <c r="G68" t="n">
-        <v>-3331.456599999997</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2929,22 +2453,15 @@
         <v>12.9169</v>
       </c>
       <c r="G69" t="n">
-        <v>-3318.539699999997</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2966,22 +2483,15 @@
         <v>3244.6021</v>
       </c>
       <c r="G70" t="n">
-        <v>-6563.141799999997</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3003,22 +2513,15 @@
         <v>295.7483</v>
       </c>
       <c r="G71" t="n">
-        <v>-6267.393499999996</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3040,22 +2543,15 @@
         <v>5372.8708</v>
       </c>
       <c r="G72" t="n">
-        <v>-894.5226999999968</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3077,22 +2573,15 @@
         <v>119.9999</v>
       </c>
       <c r="G73" t="n">
-        <v>-1014.522599999997</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3114,22 +2603,15 @@
         <v>100</v>
       </c>
       <c r="G74" t="n">
-        <v>-1114.522599999997</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3151,22 +2633,15 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>-1014.522599999997</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3188,22 +2663,15 @@
         <v>7.8538</v>
       </c>
       <c r="G76" t="n">
-        <v>-1014.522599999997</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3225,22 +2693,15 @@
         <v>238</v>
       </c>
       <c r="G77" t="n">
-        <v>-1014.522599999997</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3262,22 +2723,15 @@
         <v>247.6746</v>
       </c>
       <c r="G78" t="n">
-        <v>-1014.522599999997</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3299,22 +2753,15 @@
         <v>2155.2227</v>
       </c>
       <c r="G79" t="n">
-        <v>-3169.745299999997</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3336,22 +2783,15 @@
         <v>273.1638</v>
       </c>
       <c r="G80" t="n">
-        <v>-3442.909099999997</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3373,22 +2813,15 @@
         <v>113.8182</v>
       </c>
       <c r="G81" t="n">
-        <v>-3442.909099999997</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3410,22 +2843,15 @@
         <v>100.2325</v>
       </c>
       <c r="G82" t="n">
-        <v>-3342.676599999997</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3447,22 +2873,15 @@
         <v>116.7347</v>
       </c>
       <c r="G83" t="n">
-        <v>-3459.411299999997</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3484,22 +2903,15 @@
         <v>934</v>
       </c>
       <c r="G84" t="n">
-        <v>-2525.411299999997</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3521,22 +2933,15 @@
         <v>743.8982999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-1781.512999999997</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3558,22 +2963,15 @@
         <v>20</v>
       </c>
       <c r="G86" t="n">
-        <v>-1761.512999999997</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3595,22 +2993,15 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>-1771.512999999997</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3632,22 +3023,15 @@
         <v>918</v>
       </c>
       <c r="G88" t="n">
-        <v>-1771.512999999997</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3669,22 +3053,15 @@
         <v>2996.4926</v>
       </c>
       <c r="G89" t="n">
-        <v>-4768.005599999997</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3706,22 +3083,15 @@
         <v>635.58</v>
       </c>
       <c r="G90" t="n">
-        <v>-4768.005599999997</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3743,22 +3113,15 @@
         <v>105</v>
       </c>
       <c r="G91" t="n">
-        <v>-4768.005599999997</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3780,22 +3143,15 @@
         <v>18</v>
       </c>
       <c r="G92" t="n">
-        <v>-4768.005599999997</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3817,22 +3173,15 @@
         <v>232.9051</v>
       </c>
       <c r="G93" t="n">
-        <v>-5000.910699999997</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3854,22 +3203,15 @@
         <v>1892.0322</v>
       </c>
       <c r="G94" t="n">
-        <v>-6892.942899999996</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3891,22 +3233,15 @@
         <v>16</v>
       </c>
       <c r="G95" t="n">
-        <v>-6908.942899999996</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3928,22 +3263,15 @@
         <v>2813.4766</v>
       </c>
       <c r="G96" t="n">
-        <v>-4095.466299999996</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3965,22 +3293,15 @@
         <v>33</v>
       </c>
       <c r="G97" t="n">
-        <v>-4095.466299999996</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4002,22 +3323,15 @@
         <v>490.8075</v>
       </c>
       <c r="G98" t="n">
-        <v>-4095.466299999996</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4039,22 +3353,15 @@
         <v>780</v>
       </c>
       <c r="G99" t="n">
-        <v>-4095.466299999996</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4076,22 +3383,15 @@
         <v>530</v>
       </c>
       <c r="G100" t="n">
-        <v>-4095.466299999996</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4113,22 +3413,15 @@
         <v>260</v>
       </c>
       <c r="G101" t="n">
-        <v>-4095.466299999996</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4150,22 +3443,15 @@
         <v>624</v>
       </c>
       <c r="G102" t="n">
-        <v>-4095.466299999996</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4187,22 +3473,15 @@
         <v>102.5151</v>
       </c>
       <c r="G103" t="n">
-        <v>-4095.466299999996</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4224,22 +3503,15 @@
         <v>186.6116</v>
       </c>
       <c r="G104" t="n">
-        <v>-4282.077899999997</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4261,22 +3533,15 @@
         <v>102.6258</v>
       </c>
       <c r="G105" t="n">
-        <v>-4179.452099999997</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4298,22 +3563,15 @@
         <v>127.314</v>
       </c>
       <c r="G106" t="n">
-        <v>-4179.452099999997</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4335,22 +3593,15 @@
         <v>1.4</v>
       </c>
       <c r="G107" t="n">
-        <v>-4178.052099999997</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4372,22 +3623,15 @@
         <v>574</v>
       </c>
       <c r="G108" t="n">
-        <v>-3604.052099999997</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4409,22 +3653,15 @@
         <v>1013.1998</v>
       </c>
       <c r="G109" t="n">
-        <v>-2590.852299999997</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4446,22 +3683,15 @@
         <v>187.0037</v>
       </c>
       <c r="G110" t="n">
-        <v>-2777.855999999997</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4483,22 +3713,15 @@
         <v>2094.1463</v>
       </c>
       <c r="G111" t="n">
-        <v>-4872.002299999997</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4520,22 +3743,15 @@
         <v>6.4</v>
       </c>
       <c r="G112" t="n">
-        <v>-4872.002299999997</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4557,22 +3773,15 @@
         <v>100</v>
       </c>
       <c r="G113" t="n">
-        <v>-4872.002299999997</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4594,22 +3803,15 @@
         <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>-4872.002299999997</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4631,22 +3833,15 @@
         <v>1020.0862</v>
       </c>
       <c r="G115" t="n">
-        <v>-5892.088499999997</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4668,22 +3863,15 @@
         <v>447.31</v>
       </c>
       <c r="G116" t="n">
-        <v>-5892.088499999997</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4705,22 +3893,15 @@
         <v>1253.3098</v>
       </c>
       <c r="G117" t="n">
-        <v>-4638.778699999997</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4742,22 +3923,15 @@
         <v>1.4</v>
       </c>
       <c r="G118" t="n">
-        <v>-4637.378699999997</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4779,22 +3953,15 @@
         <v>50</v>
       </c>
       <c r="G119" t="n">
-        <v>-4637.378699999997</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4816,22 +3983,15 @@
         <v>121.2901</v>
       </c>
       <c r="G120" t="n">
-        <v>-4637.378699999997</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4853,22 +4013,15 @@
         <v>5.3104</v>
       </c>
       <c r="G121" t="n">
-        <v>-4637.378699999997</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4890,22 +4043,15 @@
         <v>50</v>
       </c>
       <c r="G122" t="n">
-        <v>-4637.378699999997</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4927,22 +4073,15 @@
         <v>43.1268</v>
       </c>
       <c r="G123" t="n">
-        <v>-4637.378699999997</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4964,22 +4103,15 @@
         <v>149.0402</v>
       </c>
       <c r="G124" t="n">
-        <v>-4637.378699999997</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5001,22 +4133,15 @@
         <v>150</v>
       </c>
       <c r="G125" t="n">
-        <v>-4487.378699999997</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5038,22 +4163,15 @@
         <v>227.9</v>
       </c>
       <c r="G126" t="n">
-        <v>-4715.278699999997</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5075,22 +4193,15 @@
         <v>440.4</v>
       </c>
       <c r="G127" t="n">
-        <v>-4274.878699999997</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5112,22 +4223,15 @@
         <v>146.8</v>
       </c>
       <c r="G128" t="n">
-        <v>-4274.878699999997</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5149,22 +4253,15 @@
         <v>102</v>
       </c>
       <c r="G129" t="n">
-        <v>-4172.878699999997</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5186,22 +4283,15 @@
         <v>105</v>
       </c>
       <c r="G130" t="n">
-        <v>-4067.878699999997</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5223,22 +4313,15 @@
         <v>535.3881</v>
       </c>
       <c r="G131" t="n">
-        <v>-4603.266799999998</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5260,22 +4343,15 @@
         <v>150</v>
       </c>
       <c r="G132" t="n">
-        <v>-4753.266799999998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5297,22 +4373,15 @@
         <v>691.8373</v>
       </c>
       <c r="G133" t="n">
-        <v>-4061.429499999997</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5334,22 +4403,15 @@
         <v>957.3869999999999</v>
       </c>
       <c r="G134" t="n">
-        <v>-4061.429499999997</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5371,22 +4433,15 @@
         <v>322.7076</v>
       </c>
       <c r="G135" t="n">
-        <v>-4384.137099999997</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5408,22 +4463,15 @@
         <v>52.9103</v>
       </c>
       <c r="G136" t="n">
-        <v>-4331.226799999998</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5445,22 +4493,15 @@
         <v>4586.0369</v>
       </c>
       <c r="G137" t="n">
-        <v>-4331.226799999998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5482,22 +4523,15 @@
         <v>626.4732</v>
       </c>
       <c r="G138" t="n">
-        <v>-4957.699999999998</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5519,22 +4553,15 @@
         <v>180.2731</v>
       </c>
       <c r="G139" t="n">
-        <v>-4777.426899999998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5556,22 +4583,15 @@
         <v>11196.0083</v>
       </c>
       <c r="G140" t="n">
-        <v>6418.581400000002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5593,22 +4613,15 @@
         <v>84.17570000000001</v>
       </c>
       <c r="G141" t="n">
-        <v>6502.757100000002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5630,22 +4643,15 @@
         <v>934.2442</v>
       </c>
       <c r="G142" t="n">
-        <v>7437.001300000002</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5667,22 +4673,15 @@
         <v>8947.189</v>
       </c>
       <c r="G143" t="n">
-        <v>16384.1903</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5704,22 +4703,15 @@
         <v>792.1287</v>
       </c>
       <c r="G144" t="n">
-        <v>17176.319</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5741,22 +4733,15 @@
         <v>173.9459</v>
       </c>
       <c r="G145" t="n">
-        <v>17176.319</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5778,22 +4763,15 @@
         <v>134.1511</v>
       </c>
       <c r="G146" t="n">
-        <v>17176.319</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5815,22 +4793,15 @@
         <v>666.7572</v>
       </c>
       <c r="G147" t="n">
-        <v>16509.5618</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5852,22 +4823,15 @@
         <v>600.9299999999999</v>
       </c>
       <c r="G148" t="n">
-        <v>17110.4918</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5889,22 +4853,15 @@
         <v>853.3</v>
       </c>
       <c r="G149" t="n">
-        <v>16257.1918</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5926,22 +4883,15 @@
         <v>595.0457</v>
       </c>
       <c r="G150" t="n">
-        <v>15662.1461</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5963,22 +4913,15 @@
         <v>1089</v>
       </c>
       <c r="G151" t="n">
-        <v>16751.14610000001</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6000,22 +4943,15 @@
         <v>48.03367875</v>
       </c>
       <c r="G152" t="n">
-        <v>16799.17977875</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6037,20 +4973,15 @@
         <v>142.4478</v>
       </c>
       <c r="G153" t="n">
-        <v>16656.73197875</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K153" t="n">
+        <v>1</v>
       </c>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6072,18 +5003,15 @@
         <v>2356.6228</v>
       </c>
       <c r="G154" t="n">
-        <v>16656.73197875</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6105,18 +5033,15 @@
         <v>2262.5993</v>
       </c>
       <c r="G155" t="n">
-        <v>16656.73197875</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6138,18 +5063,15 @@
         <v>841.7035</v>
       </c>
       <c r="G156" t="n">
-        <v>16656.73197875</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6171,18 +5093,15 @@
         <v>1421</v>
       </c>
       <c r="G157" t="n">
-        <v>18077.73197875</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6204,18 +5123,15 @@
         <v>341.4549</v>
       </c>
       <c r="G158" t="n">
-        <v>17736.27707875</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6237,18 +5153,15 @@
         <v>1457.0146</v>
       </c>
       <c r="G159" t="n">
-        <v>19193.29167875</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6270,18 +5183,15 @@
         <v>615</v>
       </c>
       <c r="G160" t="n">
-        <v>18578.29167875</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6303,18 +5213,15 @@
         <v>663</v>
       </c>
       <c r="G161" t="n">
-        <v>19241.29167875</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6336,18 +5243,15 @@
         <v>134</v>
       </c>
       <c r="G162" t="n">
-        <v>19375.29167875</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6369,18 +5273,15 @@
         <v>1036</v>
       </c>
       <c r="G163" t="n">
-        <v>19375.29167875</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6402,18 +5303,15 @@
         <v>154</v>
       </c>
       <c r="G164" t="n">
-        <v>19221.29167875</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6435,18 +5333,15 @@
         <v>878</v>
       </c>
       <c r="G165" t="n">
-        <v>19221.29167875</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6468,18 +5363,15 @@
         <v>824.5925</v>
       </c>
       <c r="G166" t="n">
-        <v>18396.69917875</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6501,18 +5393,15 @@
         <v>1465.365</v>
       </c>
       <c r="G167" t="n">
-        <v>18396.69917875</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6534,18 +5423,15 @@
         <v>894.7728</v>
       </c>
       <c r="G168" t="n">
-        <v>18396.69917875</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6567,18 +5453,15 @@
         <v>1957.9006</v>
       </c>
       <c r="G169" t="n">
-        <v>18396.69917875</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6600,18 +5483,15 @@
         <v>358.26</v>
       </c>
       <c r="G170" t="n">
-        <v>18396.69917875</v>
-      </c>
-      <c r="H170" t="n">
         <v>2</v>
       </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6633,18 +5513,15 @@
         <v>1488.5948</v>
       </c>
       <c r="G171" t="n">
-        <v>16908.10437875</v>
-      </c>
-      <c r="H171" t="n">
         <v>2</v>
       </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6666,18 +5543,15 @@
         <v>583.9158</v>
       </c>
       <c r="G172" t="n">
-        <v>17492.02017875</v>
-      </c>
-      <c r="H172" t="n">
         <v>2</v>
       </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6699,18 +5573,15 @@
         <v>270.5068</v>
       </c>
       <c r="G173" t="n">
-        <v>17762.52697875</v>
-      </c>
-      <c r="H173" t="n">
         <v>2</v>
       </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6732,18 +5603,15 @@
         <v>163.0123</v>
       </c>
       <c r="G174" t="n">
-        <v>17762.52697875</v>
-      </c>
-      <c r="H174" t="n">
         <v>2</v>
       </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6765,18 +5633,15 @@
         <v>43.5082</v>
       </c>
       <c r="G175" t="n">
-        <v>17719.01877875</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6798,18 +5663,15 @@
         <v>6500.4252</v>
       </c>
       <c r="G176" t="n">
-        <v>11218.59357875</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6831,18 +5693,15 @@
         <v>946.6461</v>
       </c>
       <c r="G177" t="n">
-        <v>11218.59357875</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6864,18 +5723,15 @@
         <v>3671.4402</v>
       </c>
       <c r="G178" t="n">
-        <v>7547.15337875</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6897,18 +5753,15 @@
         <v>2185.694</v>
       </c>
       <c r="G179" t="n">
-        <v>7547.15337875</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6930,18 +5783,15 @@
         <v>700.6754</v>
       </c>
       <c r="G180" t="n">
-        <v>8247.828778749999</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6963,18 +5813,15 @@
         <v>49</v>
       </c>
       <c r="G181" t="n">
-        <v>8247.828778749999</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6996,18 +5843,15 @@
         <v>118</v>
       </c>
       <c r="G182" t="n">
-        <v>8247.828778749999</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7029,18 +5873,15 @@
         <v>100</v>
       </c>
       <c r="G183" t="n">
-        <v>8247.828778749999</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7062,18 +5903,15 @@
         <v>150</v>
       </c>
       <c r="G184" t="n">
-        <v>8247.828778749999</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7095,18 +5933,15 @@
         <v>2032.3401</v>
       </c>
       <c r="G185" t="n">
-        <v>10280.16887875</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7128,18 +5963,15 @@
         <v>12.12</v>
       </c>
       <c r="G186" t="n">
-        <v>10280.16887875</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7161,18 +5993,15 @@
         <v>100</v>
       </c>
       <c r="G187" t="n">
-        <v>10180.16887875</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7194,18 +6023,15 @@
         <v>5865.8242</v>
       </c>
       <c r="G188" t="n">
-        <v>4314.344678749999</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7227,18 +6053,15 @@
         <v>1928.2604</v>
       </c>
       <c r="G189" t="n">
-        <v>6242.605078749999</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7260,18 +6083,15 @@
         <v>279.9075</v>
       </c>
       <c r="G190" t="n">
-        <v>5962.697578749999</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7293,18 +6113,15 @@
         <v>2497.2409</v>
       </c>
       <c r="G191" t="n">
-        <v>8459.938478749998</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7326,18 +6143,15 @@
         <v>84.1491</v>
       </c>
       <c r="G192" t="n">
-        <v>8375.789378749998</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7359,18 +6173,15 @@
         <v>25</v>
       </c>
       <c r="G193" t="n">
-        <v>8400.789378749998</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7392,18 +6203,15 @@
         <v>123.6452</v>
       </c>
       <c r="G194" t="n">
-        <v>8524.434578749999</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7425,18 +6233,15 @@
         <v>305</v>
       </c>
       <c r="G195" t="n">
-        <v>8524.434578749999</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7458,18 +6263,15 @@
         <v>436.0673</v>
       </c>
       <c r="G196" t="n">
-        <v>8088.367278749999</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7491,18 +6293,15 @@
         <v>1321.0532</v>
       </c>
       <c r="G197" t="n">
-        <v>9409.420478749998</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7524,18 +6323,15 @@
         <v>718</v>
       </c>
       <c r="G198" t="n">
-        <v>9409.420478749998</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7557,18 +6353,15 @@
         <v>615.838</v>
       </c>
       <c r="G199" t="n">
-        <v>8793.582478749999</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7590,18 +6383,15 @@
         <v>100</v>
       </c>
       <c r="G200" t="n">
-        <v>8793.582478749999</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7623,18 +6413,15 @@
         <v>183</v>
       </c>
       <c r="G201" t="n">
-        <v>8610.582478749999</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7656,18 +6443,15 @@
         <v>668</v>
       </c>
       <c r="G202" t="n">
-        <v>9278.582478749999</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7689,18 +6473,15 @@
         <v>99</v>
       </c>
       <c r="G203" t="n">
-        <v>9278.582478749999</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7722,18 +6503,15 @@
         <v>10</v>
       </c>
       <c r="G204" t="n">
-        <v>9268.582478749999</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7755,18 +6533,15 @@
         <v>48.0337</v>
       </c>
       <c r="G205" t="n">
-        <v>9220.548778749999</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7788,18 +6563,15 @@
         <v>137.767</v>
       </c>
       <c r="G206" t="n">
-        <v>9358.315778749999</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7821,18 +6593,15 @@
         <v>212.233</v>
       </c>
       <c r="G207" t="n">
-        <v>9358.315778749999</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7854,18 +6623,15 @@
         <v>1345.4401</v>
       </c>
       <c r="G208" t="n">
-        <v>8012.875678749999</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7887,18 +6653,15 @@
         <v>342</v>
       </c>
       <c r="G209" t="n">
-        <v>8354.875678749999</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7920,18 +6683,15 @@
         <v>62</v>
       </c>
       <c r="G210" t="n">
-        <v>8292.875678749999</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7953,18 +6713,15 @@
         <v>577</v>
       </c>
       <c r="G211" t="n">
-        <v>8869.875678749999</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7986,18 +6743,15 @@
         <v>1059.4647</v>
       </c>
       <c r="G212" t="n">
-        <v>7810.410978749998</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8019,18 +6773,15 @@
         <v>299</v>
       </c>
       <c r="G213" t="n">
-        <v>8109.410978749998</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8052,18 +6803,15 @@
         <v>164.2674</v>
       </c>
       <c r="G214" t="n">
-        <v>8109.410978749998</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8085,18 +6833,15 @@
         <v>876.7912</v>
       </c>
       <c r="G215" t="n">
-        <v>8986.202178749998</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8118,18 +6863,15 @@
         <v>207.6572</v>
       </c>
       <c r="G216" t="n">
-        <v>8778.544978749998</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8151,18 +6893,15 @@
         <v>587.4453</v>
       </c>
       <c r="G217" t="n">
-        <v>8778.544978749998</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8184,18 +6923,15 @@
         <v>2190.3042</v>
       </c>
       <c r="G218" t="n">
-        <v>8778.544978749998</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8217,18 +6953,15 @@
         <v>243.2109</v>
       </c>
       <c r="G219" t="n">
-        <v>8535.334078749998</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8250,18 +6983,15 @@
         <v>567.4383</v>
       </c>
       <c r="G220" t="n">
-        <v>8535.334078749998</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8283,18 +7013,15 @@
         <v>414.0768</v>
       </c>
       <c r="G221" t="n">
-        <v>8535.334078749998</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8316,18 +7043,15 @@
         <v>169.905</v>
       </c>
       <c r="G222" t="n">
-        <v>8535.334078749998</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8349,18 +7073,15 @@
         <v>184.711</v>
       </c>
       <c r="G223" t="n">
-        <v>8535.334078749998</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8382,18 +7103,15 @@
         <v>689.748</v>
       </c>
       <c r="G224" t="n">
-        <v>8535.334078749998</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8415,18 +7133,15 @@
         <v>266.94</v>
       </c>
       <c r="G225" t="n">
-        <v>8535.334078749998</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8448,18 +7163,15 @@
         <v>5.9077</v>
       </c>
       <c r="G226" t="n">
-        <v>8529.426378749999</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8481,18 +7193,15 @@
         <v>200</v>
       </c>
       <c r="G227" t="n">
-        <v>8529.426378749999</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8514,18 +7223,15 @@
         <v>100</v>
       </c>
       <c r="G228" t="n">
-        <v>8529.426378749999</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8547,18 +7253,15 @@
         <v>2393.6329</v>
       </c>
       <c r="G229" t="n">
-        <v>10923.05927875</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8580,18 +7283,15 @@
         <v>192.9107</v>
       </c>
       <c r="G230" t="n">
-        <v>10730.14857875</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8613,18 +7313,15 @@
         <v>1603.5705</v>
       </c>
       <c r="G231" t="n">
-        <v>9126.578078749999</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8646,18 +7343,15 @@
         <v>98.45529999999999</v>
       </c>
       <c r="G232" t="n">
-        <v>9225.033378749999</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8679,18 +7373,15 @@
         <v>131.57894736</v>
       </c>
       <c r="G233" t="n">
-        <v>9356.612326109998</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8712,18 +7403,15 @@
         <v>2683.5097</v>
       </c>
       <c r="G234" t="n">
-        <v>6673.102626109998</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8745,18 +7433,15 @@
         <v>3411.3151</v>
       </c>
       <c r="G235" t="n">
-        <v>3261.787526109998</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8778,18 +7463,15 @@
         <v>992.37</v>
       </c>
       <c r="G236" t="n">
-        <v>3261.787526109998</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8811,18 +7493,15 @@
         <v>353</v>
       </c>
       <c r="G237" t="n">
-        <v>2908.787526109998</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8844,18 +7523,15 @@
         <v>1.33</v>
       </c>
       <c r="G238" t="n">
-        <v>2910.117526109998</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8877,18 +7553,15 @@
         <v>3.6076</v>
       </c>
       <c r="G239" t="n">
-        <v>2910.117526109998</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
